--- a/public/data/Comics.xlsx
+++ b/public/data/Comics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="610">
   <si>
     <t>Le Grand Vizir Iznogoud</t>
   </si>
@@ -118,63 +118,6 @@
     <t>Iznogoud</t>
   </si>
   <si>
-    <t>Gala de gaffes à gogo</t>
-  </si>
-  <si>
-    <t>Gare aux gaffes du gars gonflé</t>
-  </si>
-  <si>
-    <t>Gaffes à gogo</t>
-  </si>
-  <si>
-    <t>Les Gaffes d’un gars gonflé</t>
-  </si>
-  <si>
-    <t>Le Bureau des gaffes en gros</t>
-  </si>
-  <si>
-    <t>Des gaffes et des dégâts</t>
-  </si>
-  <si>
-    <t>Un gaffeur sachant gaffer</t>
-  </si>
-  <si>
-    <t>Lagaffe nous gâte</t>
-  </si>
-  <si>
-    <t>Le Cas Lagaffe</t>
-  </si>
-  <si>
-    <t>Le Géant de la gaffe</t>
-  </si>
-  <si>
-    <t>Gaffes, bévues et boulettes</t>
-  </si>
-  <si>
-    <t>Le Gang des gaffeurs</t>
-  </si>
-  <si>
-    <t>Lagaffe mérite des baffes</t>
-  </si>
-  <si>
-    <t>La Saga des gaffes</t>
-  </si>
-  <si>
-    <t>Gaffe à Lagaffe !</t>
-  </si>
-  <si>
-    <t>En direct de la gaffe</t>
-  </si>
-  <si>
-    <t>Le lourd passé de Lagaffe</t>
-  </si>
-  <si>
-    <t>Gaffe à la vache !</t>
-  </si>
-  <si>
-    <t>Le retour de Lagaffe</t>
-  </si>
-  <si>
     <t>Gaston Lagaffe</t>
   </si>
   <si>
@@ -823,9 +766,6 @@
     <t>The Ballad of the Daltons and Other Stories</t>
   </si>
   <si>
-    <t>Gaffes Galore</t>
-  </si>
-  <si>
     <t>Morris</t>
   </si>
   <si>
@@ -1091,57 +1031,6 @@
   </si>
   <si>
     <t>Astérix</t>
-  </si>
-  <si>
-    <t>Gaston Lagaffe unleashes a spectacular display of blunders—from exploding inventions to office mayhem. This early collection highlights his eccentric genius and total disregard for workplace norms. Prunelle's patience wears thin as chaos multiplies. A comic showcase of misfires and visual gags that define Lagaffe’s anti-workplace rebellion.</t>
-  </si>
-  <si>
-    <t>Gaston continues his crusade against order with inflatables, failed gadgets, and surreal logic. His tireless energy leaves destruction in his wake—crumpling desks, botching deliveries, and enraging Prunelle. The album amplifies his personality: part inventor, part catastrophe. A must for fans of slapstick and absurdist office satire.</t>
-  </si>
-  <si>
-    <t>A classic volume full of inventions gone awry, animal mishaps, and distracted doodling. Gaston’s laid-back attitude collides hilariously with deadlines and bureaucracy. This album establishes many iconic gags, showcasing Franquin’s impeccable timing and clean-line artwork. The chaos feels boundless, but always gentle and charming.</t>
-  </si>
-  <si>
-    <t>Gaston’s inflating ego matches the inflatables he builds—balloons, beds, even a car safety device. His careless enthusiasm affects everything around him, especially the unlucky office staff. The tension between invention and destruction defines this collection, blending physical comedy with sly office observations.</t>
-  </si>
-  <si>
-    <t>The office descends into full anarchy. Gaston introduces absurd paperwork systems and explosive prototypes, baffling his coworkers. More animals join the fray—including a cat and a gull. Franquin’s gags become more elaborate and visually dense, creating a vivid portrait of organized disorder.</t>
-  </si>
-  <si>
-    <t>Gaston’s antics escalate from quirky to borderline catastrophic. Whether causing electrical outages or demolishing furniture, he manages to dodge consequences with an innocent smile. This album emphasizes escalating visual absurdity, clever build-ups, and near-miss slapstick. Franquin begins pushing the boundaries of conventional comic pacing.</t>
-  </si>
-  <si>
-    <t>A masterclass in gaffes: Gaston hits his stride as the undisputed king of workplace mayhem. His inventions are bigger, louder, and more unpredictable. Reactions from co-workers—Prunelle, Lebrac, Longtarin—are as hilarious as the setups. The pacing is sharp, with Franquin’s art reaching new expressive heights.</t>
-  </si>
-  <si>
-    <t>Gaston "treats" the office with new gifts: defective gadgets, musical catastrophes, and wild animals. His goodwill turns destructive in the most comic ways. Franquin juxtaposes Gaston’s sweetness with the chaos he unintentionally unleashes. The volume showcases the series’ blend of gentle character humor and explosive farce.</t>
-  </si>
-  <si>
-    <t>Gaston becomes a case study in dysfunction. His behavior borders on performance art—crashing meetings, frying equipment, and staging strange demonstrations. This volume dives deeper into his psychology: dreamer, rebel, and chaos artist. The reactions grow sharper, but the affection for Gaston never wavers.</t>
-  </si>
-  <si>
-    <t>Gaston reaches "giant" proportions with increasingly outrageous pranks. From fire hazards to failed green energy inventions, every gag escalates absurdly. The title plays on both his scale of disasters and his beloved status. A peak example of Franquin’s visual humor, inventiveness, and critique of modern office life.</t>
-  </si>
-  <si>
-    <t>This volume overflows with Gaston’s most jaw-dropping gaffes. From botched deliveries to electrical disasters, nothing escapes his trail of mishaps. Franquin tightens the visual punchlines and delivers running gags at full speed. It’s a comedic parade of slips, flops, and blunders that become almost poetic in their absurdity.</t>
-  </si>
-  <si>
-    <t>Gaston finds kindred spirits—fellow slackers, artists, and oddballs—who fuel his anti-work ethos. Together, they transform the office into a creative (and chaotic) playground. The gags gain more character depth, with playful critiques of conformity and corporate dullness. An ode to rebellion, friendship, and imaginative dysfunction.</t>
-  </si>
-  <si>
-    <t>Prunelle and others finally reach their breaking point. Gaston’s innocence now earns visible rage, not just sighs. Physical comedy intensifies, and tempers explode—literally. Yet the humor remains warm, never mean-spirited. The volume explores the fine balance between affection and frustration that defines Gaston’s world.</t>
-  </si>
-  <si>
-    <t>An epic compilation of Gaston’s greatest gaffes. This “saga” features callbacks to earlier inventions, evolving gags, and expanded set pieces. Franquin plays with pacing, visual echoes, and more elaborate setups. It’s a celebration of creative failure and the enduring charm of a hero who never learns.</t>
-  </si>
-  <si>
-    <t>A warning and a promise: Gaston’s gags become wilder, louder, and messier. Explosive soup cans, musical disasters, and rubber gadgets fill the pages. This volume showcases peak slapstick, with cascading reactions and brilliant timing. The office, by now, feels like a war zone of well-meaning incompetence.</t>
-  </si>
-  <si>
-    <t>Gaston goes “live,” as if broadcasting his chaos in real time. The gags feel faster, more reactive, and self-aware. There’s a meta edge—he seems to know we’re watching. Franquin plays with breaking the fourth wall, creating a vibrant, almost theatrical comic full of surprises.</t>
-  </si>
-  <si>
-    <t>Gaston’s past mistakes return to haunt the present. Old inventions reappear, unfinished projects backfire, and long-forgotten gags resurface unexpectedly. It’s a comedic exploration of consequences in a world where nothing ever really gets finished—or thrown away. The past is heavy… and still ticking!</t>
   </si>
   <si>
     <t>Gaston meets a cow. Chaos ensues. From animal care to bovine logistics, every attempt to help turns bizarre. This quirky volume highlights Gaston’s love for animals—and total lack of practicality. It’s an unusually rural twist to office-based humor, filled with manure, mooing, and miscommunication.</t>
@@ -1504,294 +1393,6 @@
     <t>A collection featuring the titular Ballad plus more Dalton antics and Western parodies. Light, varied, and filled with familiar humor.</t>
   </si>
   <si>
-    <t>asterix/fr/04-asterix-gladiateur.jpg</t>
-  </si>
-  <si>
-    <t>images/asterix/fr/40-l-iris-blanc.jpg</t>
-  </si>
-  <si>
-    <t>images/asterix/fr/39-asterix-et-le-griffon.jpg</t>
-  </si>
-  <si>
-    <t>images/asterix/fr/38-la-fille-de-vercingetorix.jpg</t>
-  </si>
-  <si>
-    <t>images/asterix/fr/37-asterix-et-la-transitalique.jpg</t>
-  </si>
-  <si>
-    <t>images/asterix/fr/36-le-papyrus-de-cesar.jpg</t>
-  </si>
-  <si>
-    <t>images/asterix/fr/35-asterix-chez-les-pictes.jpg</t>
-  </si>
-  <si>
-    <t>images/asterix/fr/34-l-anniversaire-d-asterix-et-obelix.jpg</t>
-  </si>
-  <si>
-    <t>images/asterix/fr/33-le-ciel-lui-tombe-sur-la-tete.jpg</t>
-  </si>
-  <si>
-    <t>images/asterix/fr/32-asterix-et-la-rentree-gauloise.jpg</t>
-  </si>
-  <si>
-    <t>images/asterix/fr/31-asterix-et-latraviata.jpg</t>
-  </si>
-  <si>
-    <t>images/asterix/fr/01-asterix-le-gaulois.jpg</t>
-  </si>
-  <si>
-    <t>images/asterix/fr/02-la-serpe-d-or.jpg</t>
-  </si>
-  <si>
-    <t>images/asterix/fr/03-asterix-et-les-goths.jpg</t>
-  </si>
-  <si>
-    <t>images/asterix/fr/05-le-tour-de-gaule-d-asterix.jpg</t>
-  </si>
-  <si>
-    <t>images/asterix/fr/07-le-combat-des-chefs.jpg</t>
-  </si>
-  <si>
-    <t>images/asterix/fr/06-asterix-et-cleopatre.jpg</t>
-  </si>
-  <si>
-    <t>images/asterix/fr/08-asterix-chez-les-bretons.jpg</t>
-  </si>
-  <si>
-    <t>images/asterix/fr/10-asterix-legionnaire.jpg</t>
-  </si>
-  <si>
-    <t>images/asterix/fr/09-asterix-et-les-normands.jpg</t>
-  </si>
-  <si>
-    <t>images/asterix/fr/11-le-bouclier-arverne.jpg</t>
-  </si>
-  <si>
-    <t>images/asterix/fr/12-asterix-aux-jeux-olympiques.jpg</t>
-  </si>
-  <si>
-    <t>images/asterix/fr/13-asterix-et-le-chaudron.jpg</t>
-  </si>
-  <si>
-    <t>images/asterix/fr/14-asterix-en-hispanie.jpg</t>
-  </si>
-  <si>
-    <t>images/asterix/fr/15-la-zizanie.jpg</t>
-  </si>
-  <si>
-    <t>images/asterix/fr/16-asterix-chez-les-helvetes.jpg</t>
-  </si>
-  <si>
-    <t>images/asterix/fr/17-le-domaine-des-dieux.jpg</t>
-  </si>
-  <si>
-    <t>images/asterix/fr/18-les-lauriers-de-cesar.jpg</t>
-  </si>
-  <si>
-    <t>images/asterix/fr/19-le-devin.jpg</t>
-  </si>
-  <si>
-    <t>images/asterix/fr/20-asterix-en-corse.jpg</t>
-  </si>
-  <si>
-    <t>images/asterix/fr/21-le-cadeau-de-cesar.jpg</t>
-  </si>
-  <si>
-    <t>images/asterix/fr/22-la-grande-traversee.jpg</t>
-  </si>
-  <si>
-    <t>images/asterix/fr/23-obelix-et-compagnie.jpg</t>
-  </si>
-  <si>
-    <t>images/asterix/fr/24-asterix-chez-les-belges.jpg</t>
-  </si>
-  <si>
-    <t>images/asterix/fr/25-le-grand-fosse.jpg</t>
-  </si>
-  <si>
-    <t>images/asterix/fr/26-l-odyssee-d-asterix.jpg</t>
-  </si>
-  <si>
-    <t>images/asterix/fr/27-le-fils-d-asterix.jpg</t>
-  </si>
-  <si>
-    <t>images/asterix/fr/28-asterix-chez-rahazade.jpg</t>
-  </si>
-  <si>
-    <t>images/asterix/fr/29-la-rose-et-le-glaive.jpg</t>
-  </si>
-  <si>
-    <t>images/asterix/fr/30-la-galere-d-obelix.jpg</t>
-  </si>
-  <si>
-    <t>images/tintin/fr/01-tintin-au-pays-des-soviets.jpg</t>
-  </si>
-  <si>
-    <t>images/tintin/fr/02-tintin-au-congo.jpg</t>
-  </si>
-  <si>
-    <t>images/tintin/fr/03-tintin-en-amerique.jpg</t>
-  </si>
-  <si>
-    <t>images/tintin/fr/04-les-cigares-du-pharaon.jpg</t>
-  </si>
-  <si>
-    <t>images/tintin/fr/05-le-lotus-bleu.jpg</t>
-  </si>
-  <si>
-    <t>images/tintin/fr/06-l-oreile-cassee.jpg</t>
-  </si>
-  <si>
-    <t>images/tintin/fr/07-l-ile-noire.jpg</t>
-  </si>
-  <si>
-    <t>images/tintin/fr/08-le-sceptre-d-ottokar.jpg</t>
-  </si>
-  <si>
-    <t>images/tintin/fr/09-le-crabe-aux-pinces-d-or.jpg</t>
-  </si>
-  <si>
-    <t>images/tintin/fr/10-l-etoile-mysterieuse.jpg</t>
-  </si>
-  <si>
-    <t>images/tintin/fr/11-le-secret-de-la-licorne.jpg</t>
-  </si>
-  <si>
-    <t>images/tintin/fr/12-le-tresor-de-rackham-le-rouge.jpg</t>
-  </si>
-  <si>
-    <t>images/tintin/fr/13-les-7-boules-de-cristal.jpg</t>
-  </si>
-  <si>
-    <t>images/tintin/fr/14-le-temple-du-soleil.jpg</t>
-  </si>
-  <si>
-    <t>images/tintin/fr/15-tintin-au-pays-de-l-or-noir.jpg</t>
-  </si>
-  <si>
-    <t>images/tintin/fr/16-objectif-lune.jpg</t>
-  </si>
-  <si>
-    <t>images/tintin/fr/17-on-a-marche-sur-la-lune.jpg</t>
-  </si>
-  <si>
-    <t>images/tintin/fr/18-l-affaire-tournesol.jpg</t>
-  </si>
-  <si>
-    <t>images/tintin/fr/19-coke-en-stock.jpg</t>
-  </si>
-  <si>
-    <t>images/tintin/fr/20-tintin-au-tibet.jpg</t>
-  </si>
-  <si>
-    <t>images/tintin/fr/21-les-bijoux-de-la-castafiore.jpg</t>
-  </si>
-  <si>
-    <t>images/tintin/fr/22-vol-714-pour-sydney.jpg</t>
-  </si>
-  <si>
-    <t>images/tintin/fr/23-tintin-et-les-picaros.jpg</t>
-  </si>
-  <si>
-    <t>images/tintin/fr/24-tintin-et-l-alph-art.jpg</t>
-  </si>
-  <si>
-    <t>images/iznogoud/fr/01-le-grand-vizir-iznogoud.jpg</t>
-  </si>
-  <si>
-    <t>images/iznogoud/fr/02-les-complots-du-grand-vizir-iznogoud.jpg</t>
-  </si>
-  <si>
-    <t>images/iznogoud/fr/03-les-vacances-du-calife.jpg</t>
-  </si>
-  <si>
-    <t>images/iznogoud/fr/04-iznogoud-l-infame.jpg</t>
-  </si>
-  <si>
-    <t>images/iznogoud/fr/05-des-astres-pour-iznogoud.jpg</t>
-  </si>
-  <si>
-    <t>images/iznogoud/fr/06-iznogoud-et-l-ordinateur-magique.jpg</t>
-  </si>
-  <si>
-    <t>images/iznogoud/fr/07-une-carotte-pour-iznogoud.jpg</t>
-  </si>
-  <si>
-    <t>images/iznogoud/fr/08-le-jour-des-fous.jpg</t>
-  </si>
-  <si>
-    <t>images/iznogoud/fr/09-le-tapis-magique.jpg</t>
-  </si>
-  <si>
-    <t>images/iznogoud/fr/10-iznogoud-l-acharne.jpg</t>
-  </si>
-  <si>
-    <t>images/iznogoud/fr/11-la-tete-de-turc-d-iznogoud.jpg</t>
-  </si>
-  <si>
-    <t>images/iznogoud/fr/12-le-conte-de-fees-d-iznogoud.jpg</t>
-  </si>
-  <si>
-    <t>images/iznogoud/fr/13-je-veux-etre-calife-a-la-place-du-calife.jpg</t>
-  </si>
-  <si>
-    <t>images/iznogoud/fr/14-les-cauchemars-d-iznogoud-tome-1.jpg</t>
-  </si>
-  <si>
-    <t>images/iznogoud/fr/15-l-enfance-d-iznogoud.jpg</t>
-  </si>
-  <si>
-    <t>images/iznogoud/fr/16-iznogoud-et-les-femmes.jpg</t>
-  </si>
-  <si>
-    <t>images/iznogoud/fr/17-les-cauchemars-d-iznogoud-tome-4.jpg</t>
-  </si>
-  <si>
-    <t>images/iznogoud/fr/18-le-complice-d-iznogoud.jpg</t>
-  </si>
-  <si>
-    <t>images/iznogoud/fr/19-l-anniversaire-d-iznogoud.jpg</t>
-  </si>
-  <si>
-    <t>images/iznogoud/fr/20-iznogoud-enfin-calife.jpg</t>
-  </si>
-  <si>
-    <t>images/iznogoud/fr/21-le-piege-de-la-sirŠne.jpg</t>
-  </si>
-  <si>
-    <t>images/iznogoud/fr/22-les-cauchemars-d-iznogoud-tome-2.jpg</t>
-  </si>
-  <si>
-    <t>images/iznogoud/fr/23-les-cauchemars-d-iznogoud-tome-3.jpg</t>
-  </si>
-  <si>
-    <t>images/iznogoud/fr/24-les-retours-d-iznogoud.jpg</t>
-  </si>
-  <si>
-    <t>images/iznogoud/fr/25-qui-a-tue-le-calife.jpg</t>
-  </si>
-  <si>
-    <t>images/iznogoud/fr/26-un-monstre-sympathique.jpg</t>
-  </si>
-  <si>
-    <t>images/iznogoud/fr/27-la-faute-de-l-ancetre.jpg</t>
-  </si>
-  <si>
-    <t>images/iznogoud/fr/28-les-mille-et-une-nuits-du-calife.jpg</t>
-  </si>
-  <si>
-    <t>images/iznogoud/fr/29-iznogoud-president.jpg</t>
-  </si>
-  <si>
-    <t>images/iznogoud/fr/30-de-pŠre-en-fils.jpg</t>
-  </si>
-  <si>
-    <t>images/iznogoud/fr/31-moi-calife.jpg</t>
-  </si>
-  <si>
-    <t>images/iznogoud/fr/32-des-bougies-pour-iznogoud.jpg</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -1822,13 +1423,7 @@
     <t>key</t>
   </si>
   <si>
-    <t>images/gaston/gaston.jpg</t>
-  </si>
-  <si>
     <t>images/luckyluke/luckyluke.jpg</t>
-  </si>
-  <si>
-    <t>Ultimes bévues</t>
   </si>
   <si>
     <t>Présente-t-on Gaston Lagaffe ? Ce personnage rêveur et inventif, aux trouvailles aussi inattendues que catastrophiques, est l'un des plus fameux de toute la bande dessinée. Qu'il se mêle d'améliorer la vie de bureau, de s'occuper d'un chat ou d'une mouette, d'inventer des instruments de musique ou de perfectionner sa voiture, Gaston déclenche immanquablement explosions, incendies et désastres, pour la plus grande joie de lecteurs écroulés de rire.
@@ -1836,19 +1431,424 @@
 Cette toute nouvelle édition de la collection Gaston Lagaffe intègre toutes les planches réalisées par André Franquin, certaines inédites. Chacune d'elle a été minutieusement remasterisée d'après le trait original, et délicieusement recoloriée au plus près des souhaits de l'auteur.</t>
   </si>
   <si>
-    <t>images/gaston/20-lagaffe-rebondit.jpg</t>
+    <t>images/iznogoud/fr/lowRes/01-le-grand-vizir-iznogoud.jpg</t>
+  </si>
+  <si>
+    <t>images/iznogoud/fr/lowRes/02-les-complots-du-grand-vizir-iznogoud.jpg</t>
+  </si>
+  <si>
+    <t>images/iznogoud/fr/lowRes/03-les-vacances-du-calife.jpg</t>
+  </si>
+  <si>
+    <t>images/iznogoud/fr/lowRes/04-iznogoud-l-infame.jpg</t>
+  </si>
+  <si>
+    <t>images/iznogoud/fr/lowRes/05-des-astres-pour-iznogoud.jpg</t>
+  </si>
+  <si>
+    <t>images/iznogoud/fr/lowRes/06-iznogoud-et-l-ordinateur-magique.jpg</t>
+  </si>
+  <si>
+    <t>images/iznogoud/fr/lowRes/07-une-carotte-pour-iznogoud.jpg</t>
+  </si>
+  <si>
+    <t>images/iznogoud/fr/lowRes/08-le-jour-des-fous.jpg</t>
+  </si>
+  <si>
+    <t>images/iznogoud/fr/lowRes/09-le-tapis-magique.jpg</t>
+  </si>
+  <si>
+    <t>images/iznogoud/fr/lowRes/10-iznogoud-l-acharne.jpg</t>
+  </si>
+  <si>
+    <t>images/iznogoud/fr/lowRes/11-la-tete-de-turc-d-iznogoud.jpg</t>
+  </si>
+  <si>
+    <t>images/iznogoud/fr/lowRes/12-le-conte-de-fees-d-iznogoud.jpg</t>
+  </si>
+  <si>
+    <t>images/iznogoud/fr/lowRes/13-je-veux-etre-calife-a-la-place-du-calife.jpg</t>
+  </si>
+  <si>
+    <t>images/iznogoud/fr/lowRes/14-les-cauchemars-d-iznogoud-tome-1.jpg</t>
+  </si>
+  <si>
+    <t>images/iznogoud/fr/lowRes/15-l-enfance-d-iznogoud.jpg</t>
+  </si>
+  <si>
+    <t>images/iznogoud/fr/lowRes/16-iznogoud-et-les-femmes.jpg</t>
+  </si>
+  <si>
+    <t>images/iznogoud/fr/lowRes/17-les-cauchemars-d-iznogoud-tome-4.jpg</t>
+  </si>
+  <si>
+    <t>images/iznogoud/fr/lowRes/18-le-complice-d-iznogoud.jpg</t>
+  </si>
+  <si>
+    <t>images/iznogoud/fr/lowRes/19-l-anniversaire-d-iznogoud.jpg</t>
+  </si>
+  <si>
+    <t>images/iznogoud/fr/lowRes/20-iznogoud-enfin-calife.jpg</t>
+  </si>
+  <si>
+    <t>images/iznogoud/fr/lowRes/22-les-cauchemars-d-iznogoud-tome-2.jpg</t>
+  </si>
+  <si>
+    <t>images/iznogoud/fr/lowRes/23-les-cauchemars-d-iznogoud-tome-3.jpg</t>
+  </si>
+  <si>
+    <t>images/iznogoud/fr/lowRes/24-les-retours-d-iznogoud.jpg</t>
+  </si>
+  <si>
+    <t>images/iznogoud/fr/lowRes/25-qui-a-tue-le-calife.jpg</t>
+  </si>
+  <si>
+    <t>images/iznogoud/fr/lowRes/26-un-monstre-sympathique.jpg</t>
+  </si>
+  <si>
+    <t>images/iznogoud/fr/lowRes/27-la-faute-de-l-ancetre.jpg</t>
+  </si>
+  <si>
+    <t>images/iznogoud/fr/lowRes/28-les-mille-et-une-nuits-du-calife.jpg</t>
+  </si>
+  <si>
+    <t>images/iznogoud/fr/lowRes/29-iznogoud-president.jpg</t>
+  </si>
+  <si>
+    <t>images/iznogoud/fr/lowRes/31-moi-calife.jpg</t>
+  </si>
+  <si>
+    <t>images/iznogoud/fr/lowRes/32-des-bougies-pour-iznogoud.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/fr/lowRes/01-asterix-le-gaulois.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/fr/lowRes/02-la-serpe-d-or.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/fr/lowRes/03-asterix-et-les-goths.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/fr/lowRes/05-le-tour-de-gaule-d-asterix.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/fr/lowRes/06-asterix-et-cleopatre.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/fr/lowRes/07-le-combat-des-chefs.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/fr/lowRes/08-asterix-chez-les-bretons.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/fr/lowRes/09-asterix-et-les-normands.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/fr/lowRes/10-asterix-legionnaire.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/fr/lowRes/11-le-bouclier-arverne.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/fr/lowRes/12-asterix-aux-jeux-olympiques.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/fr/lowRes/13-asterix-et-le-chaudron.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/fr/lowRes/14-asterix-en-hispanie.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/fr/lowRes/15-la-zizanie.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/fr/lowRes/16-asterix-chez-les-helvetes.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/fr/lowRes/17-le-domaine-des-dieux.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/fr/lowRes/18-les-lauriers-de-cesar.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/fr/lowRes/19-le-devin.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/fr/lowRes/20-asterix-en-corse.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/fr/lowRes/21-le-cadeau-de-cesar.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/fr/lowRes/22-la-grande-traversee.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/fr/lowRes/23-obelix-et-compagnie.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/fr/lowRes/24-asterix-chez-les-belges.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/fr/lowRes/25-le-grand-fosse.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/fr/lowRes/26-l-odyssee-d-asterix.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/fr/lowRes/27-le-fils-d-asterix.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/fr/lowRes/28-asterix-chez-rahazade.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/fr/lowRes/29-la-rose-et-le-glaive.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/fr/lowRes/30-la-galere-d-obelix.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/fr/lowRes/31-asterix-et-latraviata.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/fr/lowRes/32-asterix-et-la-rentree-gauloise.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/fr/lowRes/33-le-ciel-lui-tombe-sur-la-tete.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/fr/lowRes/34-l-anniversaire-d-asterix-et-obelix.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/fr/lowRes/35-asterix-chez-les-pictes.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/fr/lowRes/36-le-papyrus-de-cesar.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/fr/lowRes/37-asterix-et-la-transitalique.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/fr/lowRes/38-la-fille-de-vercingetorix.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/fr/lowRes/39-asterix-et-le-griffon.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/fr/lowRes/40-l-iris-blanc.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/fr/lowRes/01-tintin-au-pays-des-soviets.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/fr/lowRes/02-tintin-au-congo.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/fr/lowRes/03-tintin-en-amerique.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/fr/lowRes/04-les-cigares-du-pharaon.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/fr/lowRes/05-le-lotus-bleu.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/fr/lowRes/06-l-oreile-cassee.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/fr/lowRes/07-l-ile-noire.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/fr/lowRes/08-le-sceptre-d-ottokar.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/fr/lowRes/09-le-crabe-aux-pinces-d-or.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/fr/lowRes/10-l-etoile-mysterieuse.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/fr/lowRes/11-le-secret-de-la-licorne.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/fr/lowRes/12-le-tresor-de-rackham-le-rouge.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/fr/lowRes/13-les-7-boules-de-cristal.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/fr/lowRes/14-le-temple-du-soleil.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/fr/lowRes/15-tintin-au-pays-de-l-or-noir.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/fr/lowRes/16-objectif-lune.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/fr/lowRes/17-on-a-marche-sur-la-lune.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/fr/lowRes/18-l-affaire-tournesol.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/fr/lowRes/19-coke-en-stock.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/fr/lowRes/20-tintin-au-tibet.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/fr/lowRes/21-les-bijoux-de-la-castafiore.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/fr/lowRes/22-vol-714-pour-sydney.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/fr/lowRes/23-tintin-et-les-picaros.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/fr/lowRes/24-tintin-et-l-alph-art.jpg</t>
+  </si>
+  <si>
+    <t>images/gaston/lowRes/19-la-saga-des-gaffes.jpg</t>
+  </si>
+  <si>
+    <t>images/gaston/lowRes/20-lagaffe-rebondit.jpg</t>
+  </si>
+  <si>
+    <t>images/gaston/lowRes/21-ultimes-bévues.jpg</t>
+  </si>
+  <si>
+    <t>images/gaston/lowRes/01-premières-gaffes.jpg</t>
+  </si>
+  <si>
+    <t>images/gaston/lowRes/02-gare-aux-gaffes.jpg</t>
+  </si>
+  <si>
+    <t>images/gaston/lowRes/03-gala-de-gaffes.jpg</t>
+  </si>
+  <si>
+    <t>images/gaston/lowRes/04-le-bureau-des-gaffes-en-gros.jpg</t>
+  </si>
+  <si>
+    <t>images/gaston/lowRes/05-gaffes-à-gogo.jpg</t>
+  </si>
+  <si>
+    <t>images/gaston/lowRes/06-les-gaffes-d'un-gars-gonflé.jpg</t>
+  </si>
+  <si>
+    <t>images/gaston/lowRes/07-des-gaffes-et-des-dégâts.jpg</t>
+  </si>
+  <si>
+    <t>images/gaston/lowRes/08-rafales-de-gaffes.jpg</t>
+  </si>
+  <si>
+    <t>images/gaston/lowRes/10-gaffes-en-pagaille.jpg</t>
+  </si>
+  <si>
+    <t>images/gaston/lowRes/11-lagaffe-nous-gâte.jpg</t>
+  </si>
+  <si>
+    <t>images/gaston/lowRes/12-le-cas-lagaffe.jpg</t>
+  </si>
+  <si>
+    <t>images/gaston/lowRes/13-lagaffe-se-décoince.jpg</t>
+  </si>
+  <si>
+    <t>images/gaston/lowRes/14-le-géant-de-la-gaffe.jpg</t>
+  </si>
+  <si>
+    <t>images/gaston/lowRes/15-le-repos-du-gaffeur.jpg</t>
+  </si>
+  <si>
+    <t>images/gaston/lowRes/16-Gaffes,bévues-et-boulettes.jpg</t>
+  </si>
+  <si>
+    <t>images/gaston/lowRes/17-le-gang-des-gaffeurs.jpg</t>
+  </si>
+  <si>
+    <t>images/gaston/lowRes/18-lagaffe-mérite-des-baffes.jpg</t>
+  </si>
+  <si>
+    <t>images/gaston/lowRes/22-le-retour-de-Lagaffe.jpg</t>
+  </si>
+  <si>
+    <t>images/gaston/lowRes/09-un-gaffeur-sachant-gaffer.jpg</t>
+  </si>
+  <si>
+    <t>Premières gaffes</t>
+  </si>
+  <si>
+    <t>Gare aux gaffes</t>
+  </si>
+  <si>
+    <t>Gala de gaffes</t>
+  </si>
+  <si>
+    <t>Le bureau des gaffes en gros</t>
+  </si>
+  <si>
+    <t>Gaffes à gogo</t>
+  </si>
+  <si>
+    <t>Les gaffes d'un gars gonflé</t>
+  </si>
+  <si>
+    <t>Des gaffes et des dégâts</t>
+  </si>
+  <si>
+    <t>Rafales de gaffes</t>
+  </si>
+  <si>
+    <t>Un gaffeur sachant gaffer</t>
+  </si>
+  <si>
+    <t>Gaffes en pagaille</t>
+  </si>
+  <si>
+    <t>Lagaffe nous gâte</t>
+  </si>
+  <si>
+    <t>Le cas Lagaffe</t>
+  </si>
+  <si>
+    <t>Lagaffe se décoince</t>
+  </si>
+  <si>
+    <t>Le géant de la gaffe</t>
+  </si>
+  <si>
+    <t>Le repos du gaffeur</t>
+  </si>
+  <si>
+    <t>Gaffes, bévues et boulettes</t>
+  </si>
+  <si>
+    <t>Le gang des gaffeurs</t>
+  </si>
+  <si>
+    <t>Lagaffe mérite des baffes</t>
+  </si>
+  <si>
+    <t>La saga des gaffes</t>
   </si>
   <si>
     <t>Lagaffe rebondit</t>
   </si>
   <si>
-    <t>La saga des gaffes</t>
-  </si>
-  <si>
-    <t>images/gaston/21-ultimes-bévues.jpg</t>
-  </si>
-  <si>
-    <t>images/gaston/19-la-saga-des-gaffes.jpg</t>
+    <t>Ultimes bévues</t>
+  </si>
+  <si>
+    <t>Le retour de Lagaffe</t>
+  </si>
+  <si>
+    <t>images/asterix/fr/lowRes/04-asterix-gladiateur.jpg</t>
+  </si>
+  <si>
+    <t>images/iznogoud/fr/lowRes/30-de-pere-en-fils.jpg</t>
+  </si>
+  <si>
+    <t>images/iznogoud/fr/lowRes/21-le-piege-de-la-sirene.jpg</t>
   </si>
 </sst>
 </file>
@@ -2268,8 +2268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2286,34 +2286,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="7" t="s">
-        <v>600</v>
+        <v>467</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>591</v>
+        <v>458</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>592</v>
+        <v>459</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>593</v>
+        <v>460</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>594</v>
+        <v>461</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>595</v>
+        <v>462</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>596</v>
+        <v>463</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>597</v>
+        <v>464</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>598</v>
+        <v>465</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>599</v>
+        <v>466</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
@@ -2333,19 +2333,19 @@
         <v>1966</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>559</v>
+        <v>470</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
@@ -2365,19 +2365,19 @@
         <v>1967</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>560</v>
+        <v>471</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
@@ -2397,19 +2397,19 @@
         <v>1968</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>561</v>
+        <v>472</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1">
@@ -2429,19 +2429,19 @@
         <v>1969</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>562</v>
+        <v>473</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1">
@@ -2461,19 +2461,19 @@
         <v>1969</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>563</v>
+        <v>474</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1">
@@ -2493,19 +2493,19 @@
         <v>1970</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>564</v>
+        <v>475</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1">
@@ -2525,19 +2525,19 @@
         <v>1971</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>565</v>
+        <v>476</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H8" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1">
@@ -2557,19 +2557,19 @@
         <v>1972</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>566</v>
+        <v>477</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H9" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1">
@@ -2589,19 +2589,19 @@
         <v>1973</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>567</v>
+        <v>478</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1">
@@ -2621,19 +2621,19 @@
         <v>1974</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>568</v>
+        <v>479</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1">
@@ -2653,19 +2653,19 @@
         <v>1975</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>569</v>
+        <v>480</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -2685,19 +2685,19 @@
         <v>1976</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>570</v>
+        <v>481</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1">
@@ -2717,19 +2717,19 @@
         <v>1978</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>571</v>
+        <v>482</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1">
@@ -2749,19 +2749,19 @@
         <v>1979</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>572</v>
+        <v>483</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1">
@@ -2781,19 +2781,19 @@
         <v>1981</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>573</v>
+        <v>484</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1">
@@ -2813,19 +2813,19 @@
         <v>1983</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>574</v>
+        <v>485</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1">
@@ -2845,19 +2845,19 @@
         <v>1984</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>575</v>
+        <v>486</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1">
@@ -2877,19 +2877,19 @@
         <v>1985</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>576</v>
+        <v>487</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1">
@@ -2909,19 +2909,19 @@
         <v>1987</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>577</v>
+        <v>488</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1">
@@ -2941,19 +2941,19 @@
         <v>1989</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>578</v>
+        <v>489</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1">
@@ -2973,19 +2973,19 @@
         <v>1992</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>579</v>
+        <v>609</v>
       </c>
       <c r="G22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" t="s">
+        <v>144</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="H22" t="s">
-        <v>163</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1">
@@ -3005,19 +3005,19 @@
         <v>1994</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>580</v>
+        <v>490</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1">
@@ -3037,19 +3037,19 @@
         <v>1994</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>581</v>
+        <v>491</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1">
@@ -3069,19 +3069,19 @@
         <v>1994</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>582</v>
+        <v>492</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="I25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1">
@@ -3101,19 +3101,19 @@
         <v>1998</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>583</v>
+        <v>493</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1">
@@ -3133,19 +3133,19 @@
         <v>2000</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>584</v>
+        <v>494</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H27" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1">
@@ -3165,19 +3165,19 @@
         <v>2004</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>585</v>
+        <v>495</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1">
@@ -3197,19 +3197,19 @@
         <v>2008</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>586</v>
+        <v>496</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1">
@@ -3229,19 +3229,19 @@
         <v>2012</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>587</v>
+        <v>497</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1">
@@ -3261,19 +3261,19 @@
         <v>2015</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>588</v>
+        <v>608</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1">
@@ -3293,19 +3293,19 @@
         <v>2021</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>589</v>
+        <v>498</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3325,19 +3325,19 @@
         <v>2022</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>590</v>
+        <v>499</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3357,19 +3357,19 @@
         <v>2025</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>590</v>
+        <v>499</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3380,26 +3380,26 @@
         <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="E35" s="2">
-        <v>1970</v>
+        <v>1960</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -3410,508 +3410,443 @@
         <v>2</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>35</v>
+        <v>586</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E36" s="2">
-        <v>1973</v>
+        <v>1962</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>601</v>
+        <v>567</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" t="s">
-        <v>176</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>360</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37">
         <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>36</v>
+        <v>587</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="2">
-        <v>1974</v>
+        <v>34</v>
+      </c>
+      <c r="E37">
+        <v>1963</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>601</v>
+        <v>568</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>269</v>
+        <v>86</v>
       </c>
       <c r="I37" t="s">
-        <v>176</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>361</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38">
         <v>4</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>37</v>
+        <v>588</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" s="2">
-        <v>1974</v>
+        <v>34</v>
+      </c>
+      <c r="E38">
+        <v>1965</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>601</v>
+        <v>569</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H38" s="1"/>
+        <v>86</v>
+      </c>
       <c r="I38" t="s">
-        <v>176</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>362</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39">
         <v>5</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>38</v>
+      <c r="C39" t="s">
+        <v>589</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" s="2">
-        <v>1975</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>601</v>
+        <v>34</v>
+      </c>
+      <c r="E39">
+        <v>1966</v>
+      </c>
+      <c r="F39" t="s">
+        <v>570</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H39" s="1"/>
+        <v>86</v>
+      </c>
       <c r="I39" t="s">
-        <v>176</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>363</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40">
         <v>6</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>39</v>
+      <c r="C40" t="s">
+        <v>590</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" s="2">
-        <v>1976</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>601</v>
+        <v>34</v>
+      </c>
+      <c r="E40">
+        <v>1967</v>
+      </c>
+      <c r="F40" t="s">
+        <v>571</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H40" s="1"/>
+        <v>86</v>
+      </c>
       <c r="I40" t="s">
-        <v>176</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>364</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41">
         <v>7</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>40</v>
+      <c r="C41" t="s">
+        <v>591</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E41" s="2">
-        <v>1977</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>601</v>
+        <v>34</v>
+      </c>
+      <c r="E41">
+        <v>1968</v>
+      </c>
+      <c r="F41" t="s">
+        <v>572</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H41" s="1"/>
+        <v>86</v>
+      </c>
       <c r="I41" t="s">
-        <v>176</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>365</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42">
         <v>8</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>41</v>
+      <c r="C42" t="s">
+        <v>592</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E42" s="2">
-        <v>1978</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>601</v>
+        <v>34</v>
+      </c>
+      <c r="E42">
+        <v>1969</v>
+      </c>
+      <c r="F42" t="s">
+        <v>573</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H42" s="1"/>
+        <v>86</v>
+      </c>
       <c r="I42" t="s">
-        <v>176</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>366</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43">
         <v>9</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>42</v>
+      <c r="C43" t="s">
+        <v>593</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43" s="2">
-        <v>1980</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>601</v>
+        <v>34</v>
+      </c>
+      <c r="E43">
+        <v>1970</v>
+      </c>
+      <c r="F43" t="s">
+        <v>584</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H43" s="1"/>
+        <v>86</v>
+      </c>
       <c r="I43" t="s">
-        <v>176</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>367</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44">
         <v>10</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>43</v>
+      <c r="C44" t="s">
+        <v>594</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" s="2">
-        <v>1982</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>601</v>
+        <v>34</v>
+      </c>
+      <c r="E44">
+        <v>1971</v>
+      </c>
+      <c r="F44" t="s">
+        <v>574</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H44" s="1"/>
+        <v>86</v>
+      </c>
       <c r="I44" t="s">
-        <v>176</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>368</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45">
         <v>11</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>44</v>
+      <c r="C45" t="s">
+        <v>595</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E45" s="2">
-        <v>1985</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>601</v>
+        <v>34</v>
+      </c>
+      <c r="E45">
+        <v>1972</v>
+      </c>
+      <c r="F45" t="s">
+        <v>575</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H45" s="1"/>
+        <v>86</v>
+      </c>
       <c r="I45" t="s">
-        <v>176</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>369</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46">
         <v>12</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>45</v>
+      <c r="C46" t="s">
+        <v>596</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E46" s="2">
-        <v>1986</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>601</v>
+        <v>34</v>
+      </c>
+      <c r="E46">
+        <v>1973</v>
+      </c>
+      <c r="F46" t="s">
+        <v>576</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H46" s="1"/>
+        <v>86</v>
+      </c>
       <c r="I46" t="s">
-        <v>176</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>370</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47">
         <v>13</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>46</v>
+      <c r="C47" t="s">
+        <v>597</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E47" s="2">
-        <v>1987</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>601</v>
+        <v>34</v>
+      </c>
+      <c r="E47">
+        <v>1974</v>
+      </c>
+      <c r="F47" t="s">
+        <v>577</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H47" s="1"/>
+        <v>86</v>
+      </c>
       <c r="I47" t="s">
-        <v>176</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>371</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48">
         <v>14</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>47</v>
+      <c r="C48" t="s">
+        <v>598</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E48" s="2">
-        <v>1988</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>601</v>
+        <v>34</v>
+      </c>
+      <c r="E48">
+        <v>1976</v>
+      </c>
+      <c r="F48" t="s">
+        <v>578</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H48" s="1"/>
+        <v>86</v>
+      </c>
       <c r="I48" t="s">
-        <v>176</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>372</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49">
         <v>15</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>48</v>
+      <c r="C49" t="s">
+        <v>599</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E49" s="2">
-        <v>1996</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>601</v>
+        <v>34</v>
+      </c>
+      <c r="E49">
+        <v>1977</v>
+      </c>
+      <c r="F49" t="s">
+        <v>579</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H49" s="1"/>
+        <v>86</v>
+      </c>
       <c r="I49" t="s">
-        <v>176</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>373</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50">
         <v>16</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>49</v>
+      <c r="C50" t="s">
+        <v>600</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E50" s="2">
-        <v>1996</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>601</v>
+        <v>34</v>
+      </c>
+      <c r="E50">
+        <v>1982</v>
+      </c>
+      <c r="F50" t="s">
+        <v>580</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H50" s="1"/>
+        <v>86</v>
+      </c>
       <c r="I50" t="s">
-        <v>176</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>374</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51">
         <v>17</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>50</v>
+      <c r="C51" t="s">
+        <v>601</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E51" s="2">
-        <v>1997</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>601</v>
+        <v>34</v>
+      </c>
+      <c r="E51">
+        <v>1985</v>
+      </c>
+      <c r="F51" t="s">
+        <v>581</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H51" s="1"/>
+        <v>86</v>
+      </c>
       <c r="I51" t="s">
-        <v>176</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>375</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52">
         <v>18</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>51</v>
+      <c r="C52" t="s">
+        <v>602</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E52" s="2">
-        <v>2000</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>601</v>
+        <v>34</v>
+      </c>
+      <c r="E52">
+        <v>1986</v>
+      </c>
+      <c r="F52" t="s">
+        <v>582</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H52" s="1"/>
+        <v>86</v>
+      </c>
       <c r="I52" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>376</v>
+        <v>469</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -3922,24 +3857,26 @@
         <v>19</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E53" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1989</v>
+      </c>
       <c r="F53" s="2" t="s">
-        <v>609</v>
+        <v>563</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>604</v>
+        <v>469</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -3950,21 +3887,23 @@
         <v>20</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E54" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1996</v>
+      </c>
       <c r="F54" s="2" t="s">
-        <v>605</v>
+        <v>564</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="J54" s="3"/>
     </row>
@@ -3976,24 +3915,26 @@
         <v>21</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E55" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1997</v>
+      </c>
       <c r="F55" s="2" t="s">
-        <v>608</v>
+        <v>565</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>604</v>
+        <v>469</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -4004,26 +3945,26 @@
         <v>22</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>52</v>
+        <v>606</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E56" s="2">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>377</v>
+        <v>340</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -4034,28 +3975,28 @@
         <v>1</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E57" s="2">
         <v>1949</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="J57" t="s">
-        <v>445</v>
+        <v>408</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -4066,28 +4007,28 @@
         <v>2</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E58" s="2">
         <v>1951</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="J58" t="s">
-        <v>446</v>
+        <v>409</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -4098,28 +4039,28 @@
         <v>3</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E59" s="2">
         <v>1951</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="J59" t="s">
-        <v>447</v>
+        <v>410</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -4130,28 +4071,28 @@
         <v>4</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E60" s="2">
         <v>1952</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="J60" t="s">
-        <v>448</v>
+        <v>411</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -4162,28 +4103,28 @@
         <v>5</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E61" s="2">
         <v>1953</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="J61" t="s">
-        <v>449</v>
+        <v>412</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -4194,28 +4135,28 @@
         <v>6</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E62" s="2">
         <v>1954</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="J62" t="s">
-        <v>450</v>
+        <v>413</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -4226,28 +4167,28 @@
         <v>7</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E63" s="2">
         <v>1955</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="J63" t="s">
-        <v>451</v>
+        <v>414</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -4258,28 +4199,28 @@
         <v>8</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E64" s="2">
         <v>1956</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="J64" t="s">
-        <v>452</v>
+        <v>415</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -4290,28 +4231,28 @@
         <v>9</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E65" s="2">
         <v>1957</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="J65" t="s">
-        <v>453</v>
+        <v>416</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -4322,28 +4263,28 @@
         <v>10</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E66" s="2">
         <v>1958</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="J66" t="s">
-        <v>454</v>
+        <v>417</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -4354,28 +4295,28 @@
         <v>11</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E67" s="2">
         <v>1958</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="J67" t="s">
-        <v>455</v>
+        <v>418</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -4386,28 +4327,28 @@
         <v>12</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E68" s="2">
         <v>1958</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="J68" t="s">
-        <v>456</v>
+        <v>419</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -4418,28 +4359,28 @@
         <v>13</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E69" s="2">
         <v>1959</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="J69" t="s">
-        <v>457</v>
+        <v>420</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -4450,28 +4391,28 @@
         <v>14</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E70" s="2">
         <v>1960</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="J70" t="s">
-        <v>458</v>
+        <v>421</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -4482,28 +4423,28 @@
         <v>15</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E71" s="2">
         <v>1960</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="J71" t="s">
-        <v>459</v>
+        <v>422</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -4514,28 +4455,28 @@
         <v>16</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E72" s="2">
         <v>1961</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="J72" t="s">
-        <v>460</v>
+        <v>423</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -4546,28 +4487,28 @@
         <v>17</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E73" s="2">
         <v>1962</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="J73" t="s">
-        <v>461</v>
+        <v>424</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -4578,28 +4519,28 @@
         <v>18</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E74" s="2">
         <v>1962</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="J74" t="s">
-        <v>462</v>
+        <v>425</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -4610,28 +4551,28 @@
         <v>19</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E75" s="2">
         <v>1962</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="J75" t="s">
-        <v>463</v>
+        <v>426</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -4642,28 +4583,28 @@
         <v>20</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E76" s="2">
         <v>1962</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="J76" t="s">
-        <v>464</v>
+        <v>427</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -4674,28 +4615,28 @@
         <v>21</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E77" s="2">
         <v>1963</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="J77" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -4706,28 +4647,28 @@
         <v>22</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E78" s="2">
         <v>1963</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="J78" t="s">
-        <v>466</v>
+        <v>429</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -4738,28 +4679,28 @@
         <v>23</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E79" s="2">
         <v>1964</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="J79" t="s">
-        <v>467</v>
+        <v>430</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -4770,28 +4711,28 @@
         <v>24</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E80" s="2">
         <v>1964</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="J80" t="s">
-        <v>468</v>
+        <v>431</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -4802,28 +4743,28 @@
         <v>25</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E81" s="2">
         <v>1965</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="J81" t="s">
-        <v>469</v>
+        <v>432</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -4834,28 +4775,28 @@
         <v>26</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E82" s="2">
         <v>1965</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="J82" t="s">
-        <v>470</v>
+        <v>433</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -4866,28 +4807,28 @@
         <v>27</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E83" s="2">
         <v>1965</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H83" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I83" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="I83" s="1" t="s">
-        <v>271</v>
-      </c>
       <c r="J83" t="s">
-        <v>471</v>
+        <v>434</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -4898,28 +4839,28 @@
         <v>28</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E84" s="2">
         <v>1966</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="J84" t="s">
-        <v>472</v>
+        <v>435</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -4930,28 +4871,28 @@
         <v>29</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E85" s="2">
         <v>1967</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="J85" t="s">
-        <v>473</v>
+        <v>436</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -4962,28 +4903,28 @@
         <v>30</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E86" s="2">
         <v>1967</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="J86" t="s">
-        <v>474</v>
+        <v>437</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -4994,28 +4935,28 @@
         <v>31</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E87" s="2">
         <v>1967</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="J87" t="s">
-        <v>475</v>
+        <v>438</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -5026,28 +4967,28 @@
         <v>32</v>
       </c>
       <c r="C88" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="E88" s="2">
         <v>1968</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="J88" t="s">
-        <v>476</v>
+        <v>439</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -5058,28 +4999,28 @@
         <v>33</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E89" s="2">
         <v>1968</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="J89" t="s">
-        <v>477</v>
+        <v>440</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -5090,28 +5031,28 @@
         <v>34</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E90" s="2">
         <v>1969</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="J90" t="s">
-        <v>478</v>
+        <v>441</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -5122,28 +5063,28 @@
         <v>35</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E91" s="2">
         <v>1969</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="J91" t="s">
-        <v>479</v>
+        <v>442</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -5154,28 +5095,28 @@
         <v>36</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E92" s="2">
         <v>1970</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="J92" t="s">
-        <v>480</v>
+        <v>443</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -5186,28 +5127,28 @@
         <v>37</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E93" s="2">
         <v>1971</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="J93" t="s">
-        <v>481</v>
+        <v>444</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -5218,28 +5159,28 @@
         <v>38</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E94" s="2">
         <v>1971</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="J94" t="s">
-        <v>482</v>
+        <v>445</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -5250,28 +5191,28 @@
         <v>39</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E95" s="2">
         <v>1972</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="J95" t="s">
-        <v>483</v>
+        <v>446</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -5282,28 +5223,28 @@
         <v>40</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E96" s="2">
         <v>1973</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="J96" t="s">
-        <v>484</v>
+        <v>447</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -5314,28 +5255,28 @@
         <v>41</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E97" s="2">
         <v>1973</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="J97" t="s">
-        <v>485</v>
+        <v>448</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -5346,28 +5287,28 @@
         <v>42</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E98" s="2">
         <v>1974</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="J98" t="s">
-        <v>486</v>
+        <v>449</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -5378,28 +5319,28 @@
         <v>43</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E99" s="2">
         <v>1975</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="J99" t="s">
-        <v>487</v>
+        <v>450</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -5410,28 +5351,28 @@
         <v>44</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E100" s="2">
         <v>1975</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="J100" t="s">
-        <v>488</v>
+        <v>451</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -5442,28 +5383,28 @@
         <v>45</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E101" s="2">
         <v>1976</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="J101" t="s">
-        <v>489</v>
+        <v>452</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -5474,28 +5415,28 @@
         <v>46</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E102" s="2">
         <v>1977</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="J102" t="s">
-        <v>490</v>
+        <v>453</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -5503,31 +5444,31 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E103" s="2">
         <v>1978</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="J103" t="s">
-        <v>491</v>
+        <v>454</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -5538,28 +5479,28 @@
         <v>50</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E104" s="2">
         <v>1981</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="J104" t="s">
-        <v>492</v>
+        <v>455</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -5570,28 +5511,28 @@
         <v>51</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E105" s="2">
         <v>1983</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="J105" t="s">
-        <v>493</v>
+        <v>456</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="15" customHeight="1">
@@ -5602,28 +5543,28 @@
         <v>55</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E106" s="2">
         <v>1986</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="J106" t="s">
-        <v>494</v>
+        <v>457</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -5634,28 +5575,28 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="E107">
         <v>1930</v>
       </c>
       <c r="F107" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="I107" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>378</v>
+        <v>341</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -5666,28 +5607,28 @@
         <v>2</v>
       </c>
       <c r="C108" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="E108">
         <v>1931</v>
       </c>
       <c r="F108" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="I108" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>379</v>
+        <v>342</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -5698,28 +5639,28 @@
         <v>3</v>
       </c>
       <c r="C109" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="E109">
         <v>1932</v>
       </c>
       <c r="F109" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="I109" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>380</v>
+        <v>343</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -5730,28 +5671,28 @@
         <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="E110">
         <v>1934</v>
       </c>
       <c r="F110" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="I110" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>381</v>
+        <v>344</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -5762,28 +5703,28 @@
         <v>5</v>
       </c>
       <c r="C111" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="E111">
         <v>1936</v>
       </c>
       <c r="F111" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="I111" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>382</v>
+        <v>345</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -5794,28 +5735,28 @@
         <v>6</v>
       </c>
       <c r="C112" t="s">
+        <v>163</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="E112">
         <v>1937</v>
       </c>
       <c r="F112" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="I112" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>383</v>
+        <v>346</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -5826,28 +5767,28 @@
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="E113">
         <v>1938</v>
       </c>
       <c r="F113" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="I113" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>384</v>
+        <v>347</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -5858,28 +5799,28 @@
         <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="E114">
         <v>1939</v>
       </c>
       <c r="F114" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="I114" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>385</v>
+        <v>348</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -5890,28 +5831,28 @@
         <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="E115">
         <v>1941</v>
       </c>
       <c r="F115" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="I115" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>386</v>
+        <v>349</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -5922,28 +5863,28 @@
         <v>10</v>
       </c>
       <c r="C116" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="E116">
         <v>1942</v>
       </c>
       <c r="F116" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="I116" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -5954,28 +5895,28 @@
         <v>11</v>
       </c>
       <c r="C117" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="E117">
         <v>1943</v>
       </c>
       <c r="F117" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="I117" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>388</v>
+        <v>351</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -5986,28 +5927,28 @@
         <v>12</v>
       </c>
       <c r="C118" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="E118">
         <v>1944</v>
       </c>
       <c r="F118" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="I118" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>389</v>
+        <v>352</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -6018,28 +5959,28 @@
         <v>13</v>
       </c>
       <c r="C119" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="E119">
         <v>1948</v>
       </c>
       <c r="F119" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="I119" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>390</v>
+        <v>353</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -6050,28 +5991,28 @@
         <v>14</v>
       </c>
       <c r="C120" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="E120">
         <v>1949</v>
       </c>
       <c r="F120" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="I120" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>391</v>
+        <v>354</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -6082,28 +6023,28 @@
         <v>15</v>
       </c>
       <c r="C121" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="E121">
         <v>1950</v>
       </c>
       <c r="F121" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="I121" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>392</v>
+        <v>355</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -6114,28 +6055,28 @@
         <v>16</v>
       </c>
       <c r="C122" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="E122">
         <v>1953</v>
       </c>
       <c r="F122" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="I122" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>393</v>
+        <v>356</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -6146,28 +6087,28 @@
         <v>17</v>
       </c>
       <c r="C123" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="E123">
         <v>1954</v>
       </c>
       <c r="F123" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="I123" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>394</v>
+        <v>357</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -6178,28 +6119,28 @@
         <v>18</v>
       </c>
       <c r="C124" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="E124">
         <v>1956</v>
       </c>
       <c r="F124" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="I124" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>395</v>
+        <v>358</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -6210,28 +6151,28 @@
         <v>19</v>
       </c>
       <c r="C125" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="E125">
         <v>1958</v>
       </c>
       <c r="F125" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="I125" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>396</v>
+        <v>359</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -6242,28 +6183,28 @@
         <v>20</v>
       </c>
       <c r="C126" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="E126">
         <v>1960</v>
       </c>
       <c r="F126" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="I126" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>397</v>
+        <v>360</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -6274,28 +6215,28 @@
         <v>21</v>
       </c>
       <c r="C127" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="E127">
         <v>1963</v>
       </c>
       <c r="F127" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="I127" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>398</v>
+        <v>361</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -6306,28 +6247,28 @@
         <v>22</v>
       </c>
       <c r="C128" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="E128">
         <v>1968</v>
       </c>
       <c r="F128" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="I128" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="15" customHeight="1">
@@ -6338,28 +6279,28 @@
         <v>23</v>
       </c>
       <c r="C129" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="E129">
         <v>1976</v>
       </c>
       <c r="F129" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="I129" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>400</v>
+        <v>363</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -6370,28 +6311,28 @@
         <v>24</v>
       </c>
       <c r="C130" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="E130">
         <v>1986</v>
       </c>
       <c r="F130" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="I130" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>401</v>
+        <v>364</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="15" customHeight="1">
@@ -6402,28 +6343,28 @@
         <v>1</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="D131" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E131" s="1">
         <v>1961</v>
       </c>
       <c r="F131" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>402</v>
+        <v>365</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="15" customHeight="1">
@@ -6434,28 +6375,28 @@
         <v>2</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="D132" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E132" s="1">
         <v>1962</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>403</v>
+        <v>366</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="15" customHeight="1">
@@ -6466,28 +6407,28 @@
         <v>3</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="D133" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E133" s="1">
         <v>1963</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>404</v>
+        <v>367</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="15" customHeight="1">
@@ -6498,28 +6439,28 @@
         <v>4</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="D134" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E134" s="1">
         <v>1964</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>495</v>
+        <v>607</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>405</v>
+        <v>368</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="15" customHeight="1">
@@ -6530,28 +6471,28 @@
         <v>5</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="D135" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E135" s="1">
         <v>1965</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>406</v>
+        <v>369</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="15" customHeight="1">
@@ -6562,28 +6503,28 @@
         <v>6</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="D136" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E136" s="1">
         <v>1965</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>407</v>
+        <v>370</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="15" customHeight="1">
@@ -6594,28 +6535,28 @@
         <v>7</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="D137" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E137" s="1">
         <v>1966</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>408</v>
+        <v>371</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="15" customHeight="1">
@@ -6626,28 +6567,28 @@
         <v>8</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="D138" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E138" s="1">
         <v>1966</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>409</v>
+        <v>372</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="15" customHeight="1">
@@ -6658,28 +6599,28 @@
         <v>9</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="D139" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E139" s="1">
         <v>1966</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>410</v>
+        <v>373</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="15" customHeight="1">
@@ -6690,28 +6631,28 @@
         <v>10</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="D140" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E140" s="1">
         <v>1967</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>411</v>
+        <v>374</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="15" customHeight="1">
@@ -6722,28 +6663,28 @@
         <v>11</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="D141" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E141" s="1">
         <v>1968</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>412</v>
+        <v>375</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="15" customHeight="1">
@@ -6754,28 +6695,28 @@
         <v>12</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="D142" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E142" s="1">
         <v>1968</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>413</v>
+        <v>376</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="15" customHeight="1">
@@ -6786,28 +6727,28 @@
         <v>13</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="D143" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E143" s="1">
         <v>1969</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>414</v>
+        <v>377</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="15" customHeight="1">
@@ -6818,28 +6759,28 @@
         <v>14</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="D144" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E144" s="1">
         <v>1969</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>415</v>
+        <v>378</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="15" customHeight="1">
@@ -6850,28 +6791,28 @@
         <v>15</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="D145" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E145" s="1">
         <v>1970</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>416</v>
+        <v>379</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="15" customHeight="1">
@@ -6882,28 +6823,28 @@
         <v>16</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="D146" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E146" s="1">
         <v>1970</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>417</v>
+        <v>380</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="15" customHeight="1">
@@ -6914,28 +6855,28 @@
         <v>17</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="D147" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E147" s="1">
         <v>1971</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>419</v>
+        <v>382</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="15" customHeight="1">
@@ -6946,28 +6887,28 @@
         <v>18</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="D148" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E148" s="1">
         <v>1972</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>418</v>
+        <v>381</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="15" customHeight="1">
@@ -6978,28 +6919,28 @@
         <v>19</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="D149" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E149" s="1">
         <v>1972</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>420</v>
+        <v>383</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="15" customHeight="1">
@@ -7010,28 +6951,28 @@
         <v>20</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="D150" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E150" s="1">
         <v>1973</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="J150" s="3" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="15" customHeight="1">
@@ -7042,28 +6983,28 @@
         <v>21</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="D151" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E151" s="1">
         <v>1974</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="J151" s="3" t="s">
-        <v>444</v>
+        <v>407</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="15" customHeight="1">
@@ -7074,28 +7015,28 @@
         <v>22</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="D152" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E152" s="1">
         <v>1975</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="15" customHeight="1">
@@ -7106,28 +7047,28 @@
         <v>23</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="D153" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E153" s="1">
         <v>1976</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="15" customHeight="1">
@@ -7138,28 +7079,28 @@
         <v>24</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="D154" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E154" s="1">
         <v>1979</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="J154" s="3" t="s">
-        <v>424</v>
+        <v>387</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="15" customHeight="1">
@@ -7170,28 +7111,28 @@
         <v>25</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="D155" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E155" s="1">
         <v>1980</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>425</v>
+        <v>388</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="15" customHeight="1">
@@ -7202,28 +7143,28 @@
         <v>26</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="D156" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E156" s="1">
         <v>1981</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>427</v>
+        <v>390</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="J156" s="3" t="s">
-        <v>426</v>
+        <v>389</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="15" customHeight="1">
@@ -7234,28 +7175,28 @@
         <v>27</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="D157" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E157" s="1">
         <v>1983</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>428</v>
+        <v>391</v>
       </c>
     </row>
     <row r="158" spans="1:10" ht="15" customHeight="1">
@@ -7266,28 +7207,28 @@
         <v>28</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="D158" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E158" s="1">
         <v>1987</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="J158" s="3" t="s">
-        <v>429</v>
+        <v>392</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="15" customHeight="1">
@@ -7298,28 +7239,28 @@
         <v>29</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="D159" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E159" s="1">
         <v>1991</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>431</v>
+        <v>394</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>430</v>
+        <v>393</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="15" customHeight="1">
@@ -7330,28 +7271,28 @@
         <v>30</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="D160" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E160" s="1">
         <v>1996</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>434</v>
+        <v>397</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="J160" s="3" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="15" customHeight="1">
@@ -7362,28 +7303,28 @@
         <v>31</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="D161" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E161" s="1">
         <v>2001</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>505</v>
+        <v>529</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="J161" s="3" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="15" customHeight="1">
@@ -7394,28 +7335,28 @@
         <v>32</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="D162" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E162" s="1">
         <v>1993</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>504</v>
+        <v>530</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="J162" s="3" t="s">
-        <v>435</v>
+        <v>398</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="15" customHeight="1">
@@ -7426,28 +7367,28 @@
         <v>33</v>
       </c>
       <c r="C163" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D163" t="s">
         <v>338</v>
-      </c>
-      <c r="D163" t="s">
-        <v>358</v>
       </c>
       <c r="E163" s="1">
         <v>2005</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>503</v>
+        <v>531</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="J163" s="3" t="s">
-        <v>436</v>
+        <v>399</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="15" customHeight="1">
@@ -7458,28 +7399,28 @@
         <v>34</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="D164" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E164" s="1">
         <v>2009</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>437</v>
+        <v>400</v>
       </c>
     </row>
     <row r="165" spans="1:10" ht="15" customHeight="1">
@@ -7490,28 +7431,28 @@
         <v>35</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="D165" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E165" s="1">
         <v>2013</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>501</v>
+        <v>533</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="J165" s="3" t="s">
-        <v>438</v>
+        <v>401</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="15" customHeight="1">
@@ -7522,28 +7463,28 @@
         <v>36</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="D166" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E166" s="1">
         <v>2015</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>500</v>
+        <v>534</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>439</v>
+        <v>402</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="15" customHeight="1">
@@ -7554,28 +7495,28 @@
         <v>37</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="D167" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E167" s="1">
         <v>2017</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>499</v>
+        <v>535</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="J167" s="3" t="s">
-        <v>440</v>
+        <v>403</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="15" customHeight="1">
@@ -7586,28 +7527,28 @@
         <v>38</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="D168" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E168" s="1">
         <v>2019</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>498</v>
+        <v>536</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>441</v>
+        <v>404</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="15" customHeight="1">
@@ -7618,28 +7559,28 @@
         <v>39</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="D169" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E169" s="1">
         <v>2021</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>497</v>
+        <v>537</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>442</v>
+        <v>405</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="15" customHeight="1">
@@ -7650,28 +7591,28 @@
         <v>40</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="D170" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E170" s="1">
         <v>2023</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>496</v>
+        <v>538</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="J170" s="3" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
     </row>
     <row r="171" spans="1:10">

--- a/public/data/Comics.xlsx
+++ b/public/data/Comics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="744">
   <si>
     <t>Le Grand Vizir Iznogoud</t>
   </si>
@@ -928,9 +928,6 @@
     <t>Le Grand Fossé</t>
   </si>
   <si>
-    <t>Albert Uderzo (solo)</t>
-  </si>
-  <si>
     <t>Asterix and the Great Divide</t>
   </si>
   <si>
@@ -967,9 +964,6 @@
     <t>Astérix et la Rentrée gauloise</t>
   </si>
   <si>
-    <t>Uderzo &amp; Goscinny</t>
-  </si>
-  <si>
     <t>Le Ciel lui tombe sur la tête</t>
   </si>
   <si>
@@ -979,16 +973,10 @@
     <t>L’Anniversaire d’Astérix et Obélix</t>
   </si>
   <si>
-    <t>Goscinny &amp; Uderzo</t>
-  </si>
-  <si>
     <t>Asterix and Obelix’s Birthday</t>
   </si>
   <si>
     <t>Astérix chez les Pictes</t>
-  </si>
-  <si>
-    <t>Jean-Yves Ferri &amp; Didier Conrad</t>
   </si>
   <si>
     <t>Asterix and the Picts</t>
@@ -1849,6 +1837,427 @@
   </si>
   <si>
     <t>images/iznogoud/fr/lowRes/21-le-piege-de-la-sirene.jpg</t>
+  </si>
+  <si>
+    <t>Tintin travels to Soviet Russia to expose communist propaganda. This first story is more satirical and raw in style, showing early political intrigue with slapstick humor and rudimentary art. Important historically, it laid the foundation for Tintin's character.</t>
+  </si>
+  <si>
+    <t>Tintin journeys through Belgian Congo, encountering animals, diamond smugglers, and colonial conflicts. The story is action-packed but heavily criticized for its racial stereotypes and colonial depictions reflective of the time.</t>
+  </si>
+  <si>
+    <t>Tintin travels to Chicago, confronting gangsters like Al Capone. The plot moves west with Native American themes and industrial satire. It’s a sharp critique of capitalism and corruption in 1930s America.</t>
+  </si>
+  <si>
+    <t>In Egypt, Tintin stumbles upon a drug-smuggling ring linked to mysterious cigars. His journey leads him through Arabia and India. The story marks the debut of Thomson &amp; Thompson and introduces major recurring villains.</t>
+  </si>
+  <si>
+    <t>Tintin visits China during the Japanese invasion, exposing opium smugglers and political plots. It’s one of Hergé’s most culturally respectful works, thanks to collaboration with Chinese artist Zhang Chongren.</t>
+  </si>
+  <si>
+    <t>Tintin investigates the theft of a tribal statue, leading him to South America. He uncovers arms dealers and political conspiracies in fictional republics. A darker, more mature story.</t>
+  </si>
+  <si>
+    <t>While tracking counterfeiters, Tintin travels across England and Scotland. The eerie Black Island holds the key to the conspiracy. This album showcases detective elements and high-paced action.</t>
+  </si>
+  <si>
+    <t>Tintin uncovers a plot to depose the monarch of Syldavia. A political thriller inspired by 1930s European tensions. Its fictional settings became central to the Tintin universe.</t>
+  </si>
+  <si>
+    <t>Tintin investigates opium smuggling disguised as crab meat. He meets Captain Haddock, forming one of the series’ most iconic duos. The story is action-filled, with a naval twist.</t>
+  </si>
+  <si>
+    <t>Tintin joins a race to retrieve a rare metal from a fallen meteorite. The story mixes science, rivalry, and surrealism. Noted for its post-apocalyptic feel and stunning visuals.</t>
+  </si>
+  <si>
+    <t>Tintin acquires a model ship that contains clues to a hidden treasure. A thrilling historical mystery that links to Captain Haddock’s ancestry. Sets up a two-part treasure hunt.</t>
+  </si>
+  <si>
+    <t>Tintin and Haddock search for pirate treasure using clues from the previous book. They explore the sea floor with a shark-shaped submarine. Introduces Professor Calculus.</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Members of an expedition to Peru fall into comas after being cursed. Tintin investigates the mystery, revealing ancient Incan ties. Builds suspense and sets up the next adventure. Filled with supernatural overtones and rich cultural detail.</t>
+  </si>
+  <si>
+    <t>Tintin and Captain Haddock travel through the Andes to rescue Professor Calculus. They discover a hidden Incan civilization. The climax involves a solar eclipse in a dramatic act of bluff. Concludes the Peruvian saga.</t>
+  </si>
+  <si>
+    <t>Oil sabotage in the Middle East draws Tintin into a web of intrigue. He uncovers explosive tampering and international corruption. Set against a fictional Arabian backdrop, it reflects post-war anxieties and political manipulation.</t>
+  </si>
+  <si>
+    <t>Professor Calculus leads a space program in Syldavia. Tintin and Haddock help launch the Moon rocket. Scientific research drives the narrative. One of the most technically accurate depictions of space travel for its time.</t>
+  </si>
+  <si>
+    <t>Tintin and crew land on the Moon, facing sabotage, betrayal, and survival. It's a suspenseful, emotional, and visually imaginative conclusion to the Moon saga. A milestone in comic sci-fi storytelling.</t>
+  </si>
+  <si>
+    <t>Professor Calculus is kidnapped for his sonic weapon invention. Tintin and Haddock chase across Europe to rescue him. This Cold War espionage tale is filled with spies, gadgets, and political tension.</t>
+  </si>
+  <si>
+    <t>Tintin uncovers a human trafficking network operating under the guise of a relief mission. Themes of slavery, corruption, and betrayal abound. Rastapopoulos returns as the villain. A darker, politically charged adventure.</t>
+  </si>
+  <si>
+    <t>A heartfelt quest to rescue Tintin’s friend Chang after a plane crash. Set in the Himalayas, the story features the Yeti, Buddhist monks, and emotional depth. Hergé considered it his most personal work.</t>
+  </si>
+  <si>
+    <t>A rare whodunit without action scenes. When diva Bianca Castafiore visits Marlinspike, her emerald vanishes. The plot plays on media, gossip, and misunderstandings. A clever satire of celebrity culture and tabloid frenzy.</t>
+  </si>
+  <si>
+    <t>En route to a conference, Tintin is kidnapped and stranded on a remote island. Alien themes and mind control twist this adventure into sci-fi. Features Rastapopoulos and introduces eccentric billionaire Laszlo Carreidas.</t>
+  </si>
+  <si>
+    <t>Tintin helps overthrow a dictatorship in South America to rescue friends. Themes include revolution, disillusionment, and media spectacle. It offers a darker tone than earlier adventures, reflecting 1970s geopolitics.</t>
+  </si>
+  <si>
+    <t>An unfinished story involving a plot in the modern art world. Tintin investigates the suspicious death of an art dealer. Only sketches were completed before Hergé’s death, making it a posthumous insight into his evolving storytelling.</t>
+  </si>
+  <si>
+    <t>images/tintin/en/lowRes/01-tintin-in-the-land-of-the-soviets.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/en/lowRes/02-tintin-in-the-congo.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/en/lowRes/03-tintin-in-america.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/en/lowRes/04-cigars-of-the-pharaoh.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/en/lowRes/05-the-blue-lotus.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/en/lowRes/06-the-broken-ear.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/en/lowRes/07-the-black-island.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/en/lowRes/08-king-ottokar-s-sceptre.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/en/lowRes/09-the-crab-with-the-golden-claws.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/en/lowRes/10-the-shooting-star.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/en/lowRes/11-the-secret-of-the-unicorn.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/en/lowRes/12-red-rackham-s-treasure.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/en/lowRes/13-the-seven-crystal-balls.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/en/lowRes/14-prisoners-of-the-sun.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/en/lowRes/15-land-of-black-gold.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/en/lowRes/16-destination-moon.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/en/lowRes/17-explorers-on-the-moon.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/en/lowRes/18-the-calculus-affair.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/en/lowRes/19-the-red-sea-sharks.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/en/lowRes/20-tintin-in-tibet.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/en/lowRes/21-the-castafiore-emerald.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/en/lowRes/22-flight-714-to-sydney.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/en/lowRes/23-tintin-and-the-picaros.jpg</t>
+  </si>
+  <si>
+    <t>images/tintin/en/lowRes/24-tintin-and-alph-art.jpg</t>
+  </si>
+  <si>
+    <t>Asterix and the Chieftain’s Shield</t>
+  </si>
+  <si>
+    <t>Asterix and the Roman Agent</t>
+  </si>
+  <si>
+    <t>Asterix and the Soothsayer</t>
+  </si>
+  <si>
+    <t>Asterix and Caesar’s Gift</t>
+  </si>
+  <si>
+    <t>Asterix in Belgium</t>
+  </si>
+  <si>
+    <t>Asterix and the Magic Carpet</t>
+  </si>
+  <si>
+    <t>Asterix and the Actress</t>
+  </si>
+  <si>
+    <t>Asterix and the Missing Scroll</t>
+  </si>
+  <si>
+    <t>Asterix and the Chieftain’s Daughter</t>
+  </si>
+  <si>
+    <t>images/asterix/en/lowRes/01-asterix-the-gaul.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/en/lowRes/02-asterix-and-the-golden-sickle.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/en/lowRes/03-asterix-and-the-goths.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/en/lowRes/04-asterix-the-gladiator.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/en/lowRes/05-asterix-and-the-banquet.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/en/lowRes/06-asterix-and-cleopatra.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/en/lowRes/07-asterix-and-the-big-fight.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/en/lowRes/08-asterix-in-britain.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/en/lowRes/09-asterix-and-the-normans.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/en/lowRes/10-asterix-the-legionary.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/en/lowRes/11-asterix-and-the-chieftains-shield.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/en/lowRes/12-asterix-at-the-olympic-games.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/en/lowRes/13-asterix-and-the-cauldron.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/en/lowRes/14-asterix-in-spain.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/en/lowRes/15-asterix-and-the-roman-agent.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/en/lowRes/16-asterix-in-switzerland.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/en/lowRes/17-asterix-the-mansions-of-the-gods.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/en/lowRes/18-asterix-and-the-laurel-wreath.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/en/lowRes/19-asterix-and-the-soothsayer.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/en/lowRes/20-asterix-in-corsica.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/en/lowRes/21-asterix-and-caesars-gift.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/en/lowRes/22-asterix-and-the-great-crossing.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/en/lowRes/23-obelix-and-co.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/en/lowRes/24-asterix-in-belgium.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/en/lowRes/25-asterix-and-the-great-devide.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/en/lowRes/26-asterix-and-the-black-gold.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/en/lowRes/27-asterix-and-son.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/en/lowRes/28-asterix-and-the-magic-carpet.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/en/lowRes/29-asterix-and-the-secret-weapon.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/en/lowRes/30-asterix-and-obelix-all-at-sea.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/en/lowRes/32-asterix-and-the-class-act.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/en/lowRes/33-asterix-and-the-falling-sky.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/en/lowRes/35-asterix-and-the-picts.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/en/lowRes/36-asterix-and-the-missing-scroll.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/en/lowRes/37-asterix-and-the-chariot-race.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/en/lowRes/38-asterix-and-the-chieftains-daugther.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/en/lowRes/39-asterix-and-the-griffin.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/en/lowRes/40-asterix-and-the-white-iris.jpg</t>
+  </si>
+  <si>
+    <t>images/asterix/en/lowRes/31-asterix-and-the-actress.jpg</t>
+  </si>
+  <si>
+    <t>The Romans try to uncover the secret of the Gauls’ strength: a magic potion brewed by Getafix. Asterix thwarts their plans with cleverness and courage. This debut introduces the indomitable village and sets the tone for the series’ wit, satire, and resistance against oppression.</t>
+  </si>
+  <si>
+    <t>When Getafix breaks his sickle, Asterix and Obelix journey to Lutetia to buy a new one. They uncover a sickle-smuggling racket and bring the crooks to justice. A detective-style adventure highlighting urban chaos, shady deals, and the growing friendship between the two heroes.</t>
+  </si>
+  <si>
+    <t>The Goths kidnap Getafix during a druid conference. Asterix and Obelix venture into Germania to rescue him. Along the way, they outwit militaristic invaders and sow confusion among enemy ranks. A sharp parody of nationalism, bureaucracy, and cultural stereotypes, with hilarious disguises and strategic trickery.</t>
+  </si>
+  <si>
+    <t>When bard Cacofonix is kidnapped, Asterix and Obelix travel to Rome and join the gladiator ranks to rescue him. They turn the Coliseum into a comedy stage, mocking Roman spectacle. A hilarious, action-packed tale featuring clever escapes and the duo’s first real infiltration mission.</t>
+  </si>
+  <si>
+    <t>To defy Roman control, Asterix and Obelix travel across Gaul collecting regional delicacies for a victory feast. It’s a humorous road trip highlighting French geography, local quirks, and patriotic pride. This culinary adventure celebrates diversity and pokes fun at travel, cuisine, and bureaucratic checkpoints.</t>
+  </si>
+  <si>
+    <t>Cleopatra wagers with Caesar that her people can build a palace in record time. Asterix, Obelix, and Getafix assist architect Edifis, facing sabotage and crocodiles. A brilliant satire on pride, ancient rivalry, and pyramids, filled with memorable jokes and iconic moments in Egyptian splendor.</t>
+  </si>
+  <si>
+    <t>The Romans trick rival Gauls into challenging Asterix’s village. Getafix loses his memory, and chaos ensues. Asterix and Obelix train a hopeless stand-in while trying to restore their druid’s mind. A tale about identity, confidence, and clumsiness, full of miscommunication and comical brawls.</t>
+  </si>
+  <si>
+    <t>Asterix and Obelix help British rebels resist Roman rule by delivering a barrel of magic potion. The story parodies British culture—warm beer, stiff upper lips, and tea time—with affectionate humor. Cultural misunderstandings and heroic action blend into a whimsical yet sharp political commentary.</t>
+  </si>
+  <si>
+    <t>The fearless Normans seek to learn fear from the Gauls. Justforkix, a timid teen from Lutetia, visits the village and gets swept into their clash. A hilarious generational and cultural comedy about bravery, overconfidence, and misunderstanding, laced with clever puns and Viking bluster.</t>
+  </si>
+  <si>
+    <t>Asterix and Obelix enlist in the Roman army to rescue Tragicomix, a Gaulish captive. They form a comically diverse legion squad, face chaotic drills, and end up in North Africa. A sharp send-up of military life, discipline, and Roman expansionism—brimming with camaraderie and culture clash.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After Caesar uses Vercingetorix’s lost shield for propaganda, Asterix and Obelix search for the real one. Their quest uncovers Gaulish pride and historical betrayal. A story full of symbolism, pub-hopping humor, and subtle commentary on legacy, national identity, and how history is remembered—or forgotten.
+</t>
+  </si>
+  <si>
+    <t>To prove Gaulish strength, Asterix and Obelix compete in the Olympic Games in Greece. Romans try to ban the magic potion. The album mocks sports nationalism, cheating, and self-importance. From training mishaps to ceremonial blunders, it’s a raucous, festive send-up of ancient sports and egos.</t>
+  </si>
+  <si>
+    <t>Chief Whosemoralsarelastix asks Asterix to guard his tax money, but it vanishes. Banished in shame, Asterix vows to recover it. The tale spirals into con jobs, gladiator gigs, and even bard performances. A rare story where Asterix must act alone—highlighting personal honor, resilience, and cunning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asterix and Obelix escort a kidnapped Iberian boy, Pepe, back to Spain. His stubborn pride and Obelix’s temper clash amusingly. With flamenco dancers, Roman garrisons, and bullfights, this story playfully stereotypes Spanish culture while celebrating resistance. A joyful, sunny adventure across a passionate land.
+</t>
+  </si>
+  <si>
+    <t>To weaken the Gauls, Caesar sends troublemaker Tortuous Convolvulus, who sows paranoia and gossip in the village. Mistrust spreads, and friendships crack. Asterix tries to outwit the manipulator. A brilliant satire on psychological warfare, fake news, and how easy it is to divide a community.</t>
+  </si>
+  <si>
+    <t>Tasked with retrieving an Edelweiss flower to cure a poisoned Roman official, Asterix and Obelix travel through Helvetia. They encounter clean lakes, strict schedules, and cheese fondue. A lighthearted yet pointed jab at Swiss stereotypes, neutrality, and banking secrecy—served with precision and hearty Alpine charm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caesar tries to "civilize" the Gauls by building Roman housing near their forest. Asterix leads sabotage efforts while Obelix gets caught up in capitalism. A sharply satirical take on real estate, deforestation, and urban sprawl—this story cleverly pits commercial development against nature and cultural integrity.
+</t>
+  </si>
+  <si>
+    <t>Boasting leads Obelix and Asterix on a mission to steal Caesar’s laurel wreath—for use in a stew! Disguised in Rome, they navigate political circles, slave markets, and debauched parties. A surreal, cynical adventure that critiques ambition, excess, and privilege with irreverent wit and classic mischief.</t>
+  </si>
+  <si>
+    <t>During a thunderstorm, a soothsayer deceives the superstitious villagers—except for Asterix. Manipulation grows as the Romans get involved. This clever tale skewers belief systems, gullibility, and snake oil peddlers, showing how easily fear and flattery can sway even the most resistant minds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asterix and Obelix accompany a Corsican chieftain back to his homeland to resist Roman occupation. Featuring sleepy villages, aged cheese, and ancient feuds, it lovingly parodies Corsican stereotypes. The story is a slow-paced, atmospheric detour full of pride, patience, and a few well-placed explosions.
+</t>
+  </si>
+  <si>
+    <t>Caesar rewards a retiring legionary with… Asterix’s village! A misunderstanding leads to chaos as rival chieftains clash for control. Local politics, ego, and mob mentality are hilariously portrayed. This comic is a witty reflection on power struggles, populism, and how easily public opinion can be manipulated.</t>
+  </si>
+  <si>
+    <t>Asterix and Obelix get lost at sea and unknowingly land in America, meeting Native tribes and Viking-like explorers. It’s a playful what-if about pre-Columbian transatlantic contact. The story blends fish-out-of-water comedy with cross-cultural gags and offers a light jab at “discovery” narratives and exploration myths.</t>
+  </si>
+  <si>
+    <t>A Roman economist exploits Obelix’s love for menhirs, triggering an economic boom—and bust—in the village. Greed and productivity spiral out of control. This brilliant satire of capitalism, consumerism, and artificial demand shows how unchecked markets can distort culture and happiness. Obelix learns that more isn’t always better.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When Caesar claims Belgians are braver than Gauls, Asterix and Obelix travel north to challenge the claim. They find kindred spirits, great food, and fierce fighters. Goscinny’s final script delivers warmth, camaraderie, and a loving nod to Belgian culture. A heartfelt farewell and celebration of unity.
+</t>
+  </si>
+  <si>
+    <t>A village divided by a trench falls into conflict. Two rival chieftains and their children—star-crossed lovers—mirror Romeo and Juliet. The story critiques political division, manipulation, and civil war. Uderzo’s solo writing debut offers a new tone: more sentimental, less satirical, but still rich with humor.</t>
+  </si>
+  <si>
+    <t>Getafix needs rock oil from the Middle East, but spies and sabotage complicate the mission. Asterix and Obelix navigate desert tribes, camels, and Cold War-like intrigue. A timely tale about energy dependency, espionage, and cultural misunderstandings—infused with caricature and light political commentary.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A mysterious baby is left at Asterix’s doorstep—soon revealed to be Caesar’s secret child! The village protects him from assassins. An unusual emotional arc explores parenting, innocence, and legacy, while still delivering comic chaos. Touching, humorous, and a rare look at family in the series.
+</t>
+  </si>
+  <si>
+    <t>A flying fakir takes Asterix and Obelix to India to end a drought and rescue a princess. With snake charmers, Bollywood-like flair, and clever satire of superstition and ceremony, this exotic journey is more fantasy than history, but full of charm, visual spectacle, and laughs.</t>
+  </si>
+  <si>
+    <t>When the village considers female warriors, Obelix panics. But a Roman “feminine invasion” hides a trick. The story tackles gender roles, outdated chauvinism, and empowerment—though it stirred controversy. A bold but uneven attempt to engage with changing social norms through humor and satire.</t>
+  </si>
+  <si>
+    <t>Obelix overdoses on magic potion and turns to stone. A remedy leads the gang to Atlantis, where youth is eternal. Meanwhile, a Roman slave revolt brews. A surreal and sprawling tale with bold themes of aging, freedom, and escapism. Visually inventive but tonally more reflective.</t>
+  </si>
+  <si>
+    <t>On their shared birthday, Asterix and Obelix receive surprise visits from their mothers—and Tragicomix’s wife, now an actress. A Roman spy uses disguises to steal the druid’s secrets. Packed with family tensions, mistaken identities, and theatre satire, this comic adds personal drama to classic village chaos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A collection of short stories and rare strips, this anthology features everything from seasonal festivals to sports and Gaulish schooling. More lighthearted and vignette-style, it offers charming glimpses into daily life in the village and delivers clever punchlines, parodying modern life through ancient lenses.
+</t>
+  </si>
+  <si>
+    <t>Aliens arrive in Gaul—yes, really. One race resembles Disney characters, the other American superheroes. Asterix helps thwart their plot. A surreal and divisive satire on cultural imperialism, globalization, and entertainment industry excess. While controversial for its sci-fi turn, it critiques modern media dominance with bold imagery.</t>
+  </si>
+  <si>
+    <t>The Gauls find a frozen Pict washed ashore and travel to Scotland to return him. They encounter clan politics, sea monsters, and cultural quirks. This first entry by new creators Ferri and Conrad revitalizes the series with warmth, new landscapes, and respectful nods to Scottish heritage.</t>
+  </si>
+  <si>
+    <t>A journalist leaks a scroll Caesar left out of his memoirs. Asterix and Obelix must protect the truth. Satirizing censorship, propaganda, and online media, this fast-paced tale introduces new characters and revitalizes classic themes of resistance, freedom of speech, and rewriting history.</t>
+  </si>
+  <si>
+    <t>Asterix and Obelix join a high-stakes chariot race across Italy to expose Roman cheating. They face eccentric competitors and treacherous roads. The comic celebrates Italy’s regional diversity and pokes fun at motorsports, infrastructure, and vanity. A fun, fast-paced romp with rich cultural color.</t>
+  </si>
+  <si>
+    <t>Asterix must protect Adrenalin, rebellious daughter of Vercingetorix, from Roman pursuit. Teen angst, generational tension, and village tradition collide. A fresh, emotional story blending coming-of-age themes with familiar humor. Strong female representation and subtle depth make this a standout modern installment.</t>
+  </si>
+  <si>
+    <t>Getafix dreams of a mythical creature—the griffin—and sets off to find it with Asterix and Obelix. They journey to Sarmatia where Romans seek the beast too. Blending fantasy, feminism, and folklore, the comic explores myth, exploration, and modern ideologies with humor and snowy landscapes.</t>
+  </si>
+  <si>
+    <t>A new Roman philosophy promoting positivity and cooperation threatens to pacify Caesar’s troops—and Gauls. Asterix and Obelix face smiling enemies and soft power. A clever jab at corporate jargon, self-help culture, and rebranding war, this entry updates the series’ satire with contemporary psychological undertones.</t>
+  </si>
+  <si>
+    <t>Albert Uderzo</t>
+  </si>
+  <si>
+    <t>Jean-Yves Ferri, Didier Conrad</t>
   </si>
 </sst>
 </file>
@@ -2266,10 +2675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J186"/>
+  <dimension ref="A1:J235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A204" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I229" sqref="I229:I233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2277,7 +2686,7 @@
     <col min="3" max="3" width="37.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="68.42578125" customWidth="1"/>
+    <col min="6" max="6" width="69.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="38.7109375" customWidth="1"/>
     <col min="9" max="9" width="30.5703125" customWidth="1"/>
@@ -2286,34 +2695,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>462</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
@@ -2333,7 +2742,7 @@
         <v>1966</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>86</v>
@@ -2365,7 +2774,7 @@
         <v>1967</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>86</v>
@@ -2397,7 +2806,7 @@
         <v>1968</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>86</v>
@@ -2429,7 +2838,7 @@
         <v>1969</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>86</v>
@@ -2461,7 +2870,7 @@
         <v>1969</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>86</v>
@@ -2493,7 +2902,7 @@
         <v>1970</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>86</v>
@@ -2525,7 +2934,7 @@
         <v>1971</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>86</v>
@@ -2557,7 +2966,7 @@
         <v>1972</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>86</v>
@@ -2589,7 +2998,7 @@
         <v>1973</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>86</v>
@@ -2621,7 +3030,7 @@
         <v>1974</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>86</v>
@@ -2653,7 +3062,7 @@
         <v>1975</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>86</v>
@@ -2685,7 +3094,7 @@
         <v>1976</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>86</v>
@@ -2717,7 +3126,7 @@
         <v>1978</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>86</v>
@@ -2749,7 +3158,7 @@
         <v>1979</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>86</v>
@@ -2781,7 +3190,7 @@
         <v>1981</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>86</v>
@@ -2813,7 +3222,7 @@
         <v>1983</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>86</v>
@@ -2845,7 +3254,7 @@
         <v>1984</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>86</v>
@@ -2877,7 +3286,7 @@
         <v>1985</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>86</v>
@@ -2909,7 +3318,7 @@
         <v>1987</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>86</v>
@@ -2941,7 +3350,7 @@
         <v>1989</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>86</v>
@@ -2973,7 +3382,7 @@
         <v>1992</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>86</v>
@@ -3005,7 +3414,7 @@
         <v>1994</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>86</v>
@@ -3037,7 +3446,7 @@
         <v>1994</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>86</v>
@@ -3069,7 +3478,7 @@
         <v>1994</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>86</v>
@@ -3101,7 +3510,7 @@
         <v>1998</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>86</v>
@@ -3133,7 +3542,7 @@
         <v>2000</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>86</v>
@@ -3165,7 +3574,7 @@
         <v>2004</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>86</v>
@@ -3197,7 +3606,7 @@
         <v>2008</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>86</v>
@@ -3229,7 +3638,7 @@
         <v>2012</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>86</v>
@@ -3261,7 +3670,7 @@
         <v>2015</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>86</v>
@@ -3293,7 +3702,7 @@
         <v>2021</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>86</v>
@@ -3325,7 +3734,7 @@
         <v>2022</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>86</v>
@@ -3357,7 +3766,7 @@
         <v>2025</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>86</v>
@@ -3380,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>34</v>
@@ -3389,7 +3798,7 @@
         <v>1960</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>86</v>
@@ -3399,7 +3808,7 @@
         <v>157</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -3410,7 +3819,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>34</v>
@@ -3419,7 +3828,7 @@
         <v>1962</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>86</v>
@@ -3438,7 +3847,7 @@
         <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>34</v>
@@ -3447,7 +3856,7 @@
         <v>1963</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>86</v>
@@ -3464,7 +3873,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>34</v>
@@ -3473,7 +3882,7 @@
         <v>1965</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>86</v>
@@ -3490,7 +3899,7 @@
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>34</v>
@@ -3499,7 +3908,7 @@
         <v>1966</v>
       </c>
       <c r="F39" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>86</v>
@@ -3516,7 +3925,7 @@
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>34</v>
@@ -3525,7 +3934,7 @@
         <v>1967</v>
       </c>
       <c r="F40" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>86</v>
@@ -3542,7 +3951,7 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>34</v>
@@ -3551,7 +3960,7 @@
         <v>1968</v>
       </c>
       <c r="F41" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>86</v>
@@ -3568,7 +3977,7 @@
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>34</v>
@@ -3577,7 +3986,7 @@
         <v>1969</v>
       </c>
       <c r="F42" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>86</v>
@@ -3594,7 +4003,7 @@
         <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>34</v>
@@ -3603,7 +4012,7 @@
         <v>1970</v>
       </c>
       <c r="F43" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>86</v>
@@ -3620,7 +4029,7 @@
         <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>34</v>
@@ -3629,7 +4038,7 @@
         <v>1971</v>
       </c>
       <c r="F44" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>86</v>
@@ -3646,7 +4055,7 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>34</v>
@@ -3655,7 +4064,7 @@
         <v>1972</v>
       </c>
       <c r="F45" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>86</v>
@@ -3672,7 +4081,7 @@
         <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>34</v>
@@ -3681,7 +4090,7 @@
         <v>1973</v>
       </c>
       <c r="F46" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>86</v>
@@ -3698,7 +4107,7 @@
         <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>34</v>
@@ -3707,7 +4116,7 @@
         <v>1974</v>
       </c>
       <c r="F47" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>86</v>
@@ -3724,7 +4133,7 @@
         <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>34</v>
@@ -3733,7 +4142,7 @@
         <v>1976</v>
       </c>
       <c r="F48" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>86</v>
@@ -3750,7 +4159,7 @@
         <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>34</v>
@@ -3759,7 +4168,7 @@
         <v>1977</v>
       </c>
       <c r="F49" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>86</v>
@@ -3776,7 +4185,7 @@
         <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>34</v>
@@ -3785,7 +4194,7 @@
         <v>1982</v>
       </c>
       <c r="F50" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>86</v>
@@ -3802,7 +4211,7 @@
         <v>17</v>
       </c>
       <c r="C51" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>34</v>
@@ -3811,7 +4220,7 @@
         <v>1985</v>
       </c>
       <c r="F51" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>86</v>
@@ -3828,7 +4237,7 @@
         <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>34</v>
@@ -3837,7 +4246,7 @@
         <v>1986</v>
       </c>
       <c r="F52" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>86</v>
@@ -3846,7 +4255,7 @@
         <v>157</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -3857,7 +4266,7 @@
         <v>19</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>34</v>
@@ -3866,7 +4275,7 @@
         <v>1989</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>86</v>
@@ -3876,7 +4285,7 @@
         <v>157</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -3887,7 +4296,7 @@
         <v>20</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>34</v>
@@ -3896,7 +4305,7 @@
         <v>1996</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>86</v>
@@ -3915,7 +4324,7 @@
         <v>21</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>34</v>
@@ -3924,7 +4333,7 @@
         <v>1997</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>86</v>
@@ -3934,7 +4343,7 @@
         <v>157</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -3945,7 +4354,7 @@
         <v>22</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>34</v>
@@ -3954,7 +4363,7 @@
         <v>2018</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>86</v>
@@ -3964,7 +4373,7 @@
         <v>157</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -3984,7 +4393,7 @@
         <v>1949</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>86</v>
@@ -3996,7 +4405,7 @@
         <v>250</v>
       </c>
       <c r="J57" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -4016,7 +4425,7 @@
         <v>1951</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>86</v>
@@ -4028,7 +4437,7 @@
         <v>250</v>
       </c>
       <c r="J58" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -4048,7 +4457,7 @@
         <v>1951</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>86</v>
@@ -4060,7 +4469,7 @@
         <v>250</v>
       </c>
       <c r="J59" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -4080,7 +4489,7 @@
         <v>1952</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>86</v>
@@ -4092,7 +4501,7 @@
         <v>250</v>
       </c>
       <c r="J60" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -4112,7 +4521,7 @@
         <v>1953</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>86</v>
@@ -4124,7 +4533,7 @@
         <v>250</v>
       </c>
       <c r="J61" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -4144,7 +4553,7 @@
         <v>1954</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>86</v>
@@ -4156,7 +4565,7 @@
         <v>250</v>
       </c>
       <c r="J62" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -4176,7 +4585,7 @@
         <v>1955</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>86</v>
@@ -4188,7 +4597,7 @@
         <v>250</v>
       </c>
       <c r="J63" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -4208,7 +4617,7 @@
         <v>1956</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>86</v>
@@ -4220,7 +4629,7 @@
         <v>250</v>
       </c>
       <c r="J64" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -4240,7 +4649,7 @@
         <v>1957</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>86</v>
@@ -4252,7 +4661,7 @@
         <v>251</v>
       </c>
       <c r="J65" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -4272,7 +4681,7 @@
         <v>1958</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>86</v>
@@ -4284,7 +4693,7 @@
         <v>251</v>
       </c>
       <c r="J66" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -4304,7 +4713,7 @@
         <v>1958</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>86</v>
@@ -4316,7 +4725,7 @@
         <v>251</v>
       </c>
       <c r="J67" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -4336,7 +4745,7 @@
         <v>1958</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>86</v>
@@ -4348,7 +4757,7 @@
         <v>251</v>
       </c>
       <c r="J68" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -4368,7 +4777,7 @@
         <v>1959</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>86</v>
@@ -4380,7 +4789,7 @@
         <v>251</v>
       </c>
       <c r="J69" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -4400,7 +4809,7 @@
         <v>1960</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>86</v>
@@ -4412,7 +4821,7 @@
         <v>251</v>
       </c>
       <c r="J70" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -4432,7 +4841,7 @@
         <v>1960</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>86</v>
@@ -4444,7 +4853,7 @@
         <v>251</v>
       </c>
       <c r="J71" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -4464,7 +4873,7 @@
         <v>1961</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>86</v>
@@ -4476,7 +4885,7 @@
         <v>251</v>
       </c>
       <c r="J72" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -4496,7 +4905,7 @@
         <v>1962</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>86</v>
@@ -4508,7 +4917,7 @@
         <v>251</v>
       </c>
       <c r="J73" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -4528,7 +4937,7 @@
         <v>1962</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>86</v>
@@ -4540,7 +4949,7 @@
         <v>251</v>
       </c>
       <c r="J74" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -4560,7 +4969,7 @@
         <v>1962</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>86</v>
@@ -4572,7 +4981,7 @@
         <v>251</v>
       </c>
       <c r="J75" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -4592,7 +5001,7 @@
         <v>1962</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>86</v>
@@ -4604,7 +5013,7 @@
         <v>251</v>
       </c>
       <c r="J76" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -4624,7 +5033,7 @@
         <v>1963</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>86</v>
@@ -4636,7 +5045,7 @@
         <v>251</v>
       </c>
       <c r="J77" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -4656,7 +5065,7 @@
         <v>1963</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>86</v>
@@ -4668,7 +5077,7 @@
         <v>251</v>
       </c>
       <c r="J78" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -4688,7 +5097,7 @@
         <v>1964</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>86</v>
@@ -4700,7 +5109,7 @@
         <v>251</v>
       </c>
       <c r="J79" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -4720,7 +5129,7 @@
         <v>1964</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>86</v>
@@ -4732,7 +5141,7 @@
         <v>251</v>
       </c>
       <c r="J80" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -4752,7 +5161,7 @@
         <v>1965</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>86</v>
@@ -4764,7 +5173,7 @@
         <v>251</v>
       </c>
       <c r="J81" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -4784,7 +5193,7 @@
         <v>1965</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>86</v>
@@ -4796,7 +5205,7 @@
         <v>251</v>
       </c>
       <c r="J82" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -4816,7 +5225,7 @@
         <v>1965</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>86</v>
@@ -4828,7 +5237,7 @@
         <v>251</v>
       </c>
       <c r="J83" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -4848,7 +5257,7 @@
         <v>1966</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>86</v>
@@ -4860,7 +5269,7 @@
         <v>251</v>
       </c>
       <c r="J84" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -4880,7 +5289,7 @@
         <v>1967</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>86</v>
@@ -4892,7 +5301,7 @@
         <v>251</v>
       </c>
       <c r="J85" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -4912,7 +5321,7 @@
         <v>1967</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>86</v>
@@ -4924,7 +5333,7 @@
         <v>251</v>
       </c>
       <c r="J86" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -4944,7 +5353,7 @@
         <v>1967</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>86</v>
@@ -4956,7 +5365,7 @@
         <v>251</v>
       </c>
       <c r="J87" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -4976,7 +5385,7 @@
         <v>1968</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>86</v>
@@ -4988,7 +5397,7 @@
         <v>251</v>
       </c>
       <c r="J88" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -5008,7 +5417,7 @@
         <v>1968</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>86</v>
@@ -5020,7 +5429,7 @@
         <v>251</v>
       </c>
       <c r="J89" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -5040,7 +5449,7 @@
         <v>1969</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>86</v>
@@ -5052,7 +5461,7 @@
         <v>251</v>
       </c>
       <c r="J90" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -5072,7 +5481,7 @@
         <v>1969</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>86</v>
@@ -5084,7 +5493,7 @@
         <v>251</v>
       </c>
       <c r="J91" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -5104,7 +5513,7 @@
         <v>1970</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>86</v>
@@ -5116,7 +5525,7 @@
         <v>251</v>
       </c>
       <c r="J92" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -5136,7 +5545,7 @@
         <v>1971</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>86</v>
@@ -5148,7 +5557,7 @@
         <v>251</v>
       </c>
       <c r="J93" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -5168,7 +5577,7 @@
         <v>1971</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>86</v>
@@ -5180,7 +5589,7 @@
         <v>251</v>
       </c>
       <c r="J94" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -5200,7 +5609,7 @@
         <v>1972</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>86</v>
@@ -5212,7 +5621,7 @@
         <v>251</v>
       </c>
       <c r="J95" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -5232,7 +5641,7 @@
         <v>1973</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>86</v>
@@ -5244,7 +5653,7 @@
         <v>251</v>
       </c>
       <c r="J96" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -5264,7 +5673,7 @@
         <v>1973</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>86</v>
@@ -5276,7 +5685,7 @@
         <v>251</v>
       </c>
       <c r="J97" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -5296,7 +5705,7 @@
         <v>1974</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>86</v>
@@ -5308,7 +5717,7 @@
         <v>252</v>
       </c>
       <c r="J98" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -5328,7 +5737,7 @@
         <v>1975</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>86</v>
@@ -5340,7 +5749,7 @@
         <v>251</v>
       </c>
       <c r="J99" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -5360,7 +5769,7 @@
         <v>1975</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>86</v>
@@ -5372,7 +5781,7 @@
         <v>251</v>
       </c>
       <c r="J100" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -5392,7 +5801,7 @@
         <v>1976</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>86</v>
@@ -5404,7 +5813,7 @@
         <v>251</v>
       </c>
       <c r="J101" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -5424,7 +5833,7 @@
         <v>1977</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>86</v>
@@ -5436,7 +5845,7 @@
         <v>251</v>
       </c>
       <c r="J102" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -5456,7 +5865,7 @@
         <v>1978</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>86</v>
@@ -5468,7 +5877,7 @@
         <v>251</v>
       </c>
       <c r="J103" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -5488,7 +5897,7 @@
         <v>1981</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>86</v>
@@ -5500,7 +5909,7 @@
         <v>253</v>
       </c>
       <c r="J104" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -5520,7 +5929,7 @@
         <v>1983</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>86</v>
@@ -5532,7 +5941,7 @@
         <v>251</v>
       </c>
       <c r="J105" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="15" customHeight="1">
@@ -5552,7 +5961,7 @@
         <v>1986</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>86</v>
@@ -5564,7 +5973,7 @@
         <v>251</v>
       </c>
       <c r="J106" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -5584,7 +5993,7 @@
         <v>1930</v>
       </c>
       <c r="F107" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>86</v>
@@ -5596,7 +6005,7 @@
         <v>183</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -5616,7 +6025,7 @@
         <v>1931</v>
       </c>
       <c r="F108" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>86</v>
@@ -5628,7 +6037,7 @@
         <v>183</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -5648,7 +6057,7 @@
         <v>1932</v>
       </c>
       <c r="F109" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>86</v>
@@ -5660,7 +6069,7 @@
         <v>183</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -5680,7 +6089,7 @@
         <v>1934</v>
       </c>
       <c r="F110" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>86</v>
@@ -5692,7 +6101,7 @@
         <v>183</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -5712,7 +6121,7 @@
         <v>1936</v>
       </c>
       <c r="F111" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>86</v>
@@ -5724,7 +6133,7 @@
         <v>183</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -5744,7 +6153,7 @@
         <v>1937</v>
       </c>
       <c r="F112" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>86</v>
@@ -5756,7 +6165,7 @@
         <v>183</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -5776,7 +6185,7 @@
         <v>1938</v>
       </c>
       <c r="F113" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>86</v>
@@ -5788,7 +6197,7 @@
         <v>183</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -5808,7 +6217,7 @@
         <v>1939</v>
       </c>
       <c r="F114" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>86</v>
@@ -5820,7 +6229,7 @@
         <v>183</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -5840,7 +6249,7 @@
         <v>1941</v>
       </c>
       <c r="F115" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>86</v>
@@ -5852,7 +6261,7 @@
         <v>183</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -5872,7 +6281,7 @@
         <v>1942</v>
       </c>
       <c r="F116" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>86</v>
@@ -5884,7 +6293,7 @@
         <v>183</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -5904,7 +6313,7 @@
         <v>1943</v>
       </c>
       <c r="F117" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>86</v>
@@ -5916,7 +6325,7 @@
         <v>183</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -5936,7 +6345,7 @@
         <v>1944</v>
       </c>
       <c r="F118" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>86</v>
@@ -5948,7 +6357,7 @@
         <v>183</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -5968,7 +6377,7 @@
         <v>1948</v>
       </c>
       <c r="F119" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>86</v>
@@ -5980,7 +6389,7 @@
         <v>183</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -6000,7 +6409,7 @@
         <v>1949</v>
       </c>
       <c r="F120" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>86</v>
@@ -6012,7 +6421,7 @@
         <v>183</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -6032,7 +6441,7 @@
         <v>1950</v>
       </c>
       <c r="F121" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>86</v>
@@ -6044,7 +6453,7 @@
         <v>183</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -6064,7 +6473,7 @@
         <v>1953</v>
       </c>
       <c r="F122" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>86</v>
@@ -6076,7 +6485,7 @@
         <v>183</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -6096,7 +6505,7 @@
         <v>1954</v>
       </c>
       <c r="F123" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>86</v>
@@ -6108,7 +6517,7 @@
         <v>183</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -6128,7 +6537,7 @@
         <v>1956</v>
       </c>
       <c r="F124" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>86</v>
@@ -6140,7 +6549,7 @@
         <v>183</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -6160,7 +6569,7 @@
         <v>1958</v>
       </c>
       <c r="F125" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>86</v>
@@ -6172,7 +6581,7 @@
         <v>183</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -6192,7 +6601,7 @@
         <v>1960</v>
       </c>
       <c r="F126" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>86</v>
@@ -6204,7 +6613,7 @@
         <v>183</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -6224,7 +6633,7 @@
         <v>1963</v>
       </c>
       <c r="F127" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>86</v>
@@ -6236,7 +6645,7 @@
         <v>183</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -6256,7 +6665,7 @@
         <v>1968</v>
       </c>
       <c r="F128" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>86</v>
@@ -6268,7 +6677,7 @@
         <v>183</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="15" customHeight="1">
@@ -6288,7 +6697,7 @@
         <v>1976</v>
       </c>
       <c r="F129" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>86</v>
@@ -6300,7 +6709,7 @@
         <v>183</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -6320,7 +6729,7 @@
         <v>1986</v>
       </c>
       <c r="F130" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>86</v>
@@ -6332,7 +6741,7 @@
         <v>183</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="15" customHeight="1">
@@ -6346,13 +6755,13 @@
         <v>254</v>
       </c>
       <c r="D131" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E131" s="1">
         <v>1961</v>
       </c>
       <c r="F131" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>86</v>
@@ -6364,7 +6773,7 @@
         <v>255</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="15" customHeight="1">
@@ -6378,13 +6787,13 @@
         <v>257</v>
       </c>
       <c r="D132" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E132" s="1">
         <v>1962</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>86</v>
@@ -6396,7 +6805,7 @@
         <v>255</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="15" customHeight="1">
@@ -6410,13 +6819,13 @@
         <v>259</v>
       </c>
       <c r="D133" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E133" s="1">
         <v>1963</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>86</v>
@@ -6428,7 +6837,7 @@
         <v>255</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="15" customHeight="1">
@@ -6442,13 +6851,13 @@
         <v>261</v>
       </c>
       <c r="D134" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E134" s="1">
         <v>1964</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>86</v>
@@ -6460,7 +6869,7 @@
         <v>255</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="15" customHeight="1">
@@ -6474,13 +6883,13 @@
         <v>263</v>
       </c>
       <c r="D135" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E135" s="1">
         <v>1965</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>86</v>
@@ -6492,7 +6901,7 @@
         <v>255</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="15" customHeight="1">
@@ -6506,13 +6915,13 @@
         <v>265</v>
       </c>
       <c r="D136" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E136" s="1">
         <v>1965</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>86</v>
@@ -6524,7 +6933,7 @@
         <v>255</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="15" customHeight="1">
@@ -6538,13 +6947,13 @@
         <v>267</v>
       </c>
       <c r="D137" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E137" s="1">
         <v>1966</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>86</v>
@@ -6556,7 +6965,7 @@
         <v>255</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="15" customHeight="1">
@@ -6570,13 +6979,13 @@
         <v>269</v>
       </c>
       <c r="D138" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E138" s="1">
         <v>1966</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>86</v>
@@ -6588,7 +6997,7 @@
         <v>255</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="15" customHeight="1">
@@ -6602,13 +7011,13 @@
         <v>271</v>
       </c>
       <c r="D139" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E139" s="1">
         <v>1966</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>86</v>
@@ -6620,7 +7029,7 @@
         <v>255</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="15" customHeight="1">
@@ -6634,13 +7043,13 @@
         <v>273</v>
       </c>
       <c r="D140" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E140" s="1">
         <v>1967</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>86</v>
@@ -6652,7 +7061,7 @@
         <v>255</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="15" customHeight="1">
@@ -6666,13 +7075,13 @@
         <v>275</v>
       </c>
       <c r="D141" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E141" s="1">
         <v>1968</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>86</v>
@@ -6684,7 +7093,7 @@
         <v>255</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="15" customHeight="1">
@@ -6698,13 +7107,13 @@
         <v>277</v>
       </c>
       <c r="D142" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E142" s="1">
         <v>1968</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>86</v>
@@ -6716,7 +7125,7 @@
         <v>255</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="15" customHeight="1">
@@ -6730,13 +7139,13 @@
         <v>279</v>
       </c>
       <c r="D143" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E143" s="1">
         <v>1969</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>86</v>
@@ -6748,7 +7157,7 @@
         <v>255</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="15" customHeight="1">
@@ -6762,13 +7171,13 @@
         <v>281</v>
       </c>
       <c r="D144" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E144" s="1">
         <v>1969</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>86</v>
@@ -6780,7 +7189,7 @@
         <v>255</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="15" customHeight="1">
@@ -6794,13 +7203,13 @@
         <v>283</v>
       </c>
       <c r="D145" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E145" s="1">
         <v>1970</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>86</v>
@@ -6812,7 +7221,7 @@
         <v>255</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="15" customHeight="1">
@@ -6826,13 +7235,13 @@
         <v>285</v>
       </c>
       <c r="D146" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E146" s="1">
         <v>1970</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>86</v>
@@ -6844,7 +7253,7 @@
         <v>255</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="15" customHeight="1">
@@ -6858,13 +7267,13 @@
         <v>287</v>
       </c>
       <c r="D147" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E147" s="1">
         <v>1971</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>86</v>
@@ -6876,7 +7285,7 @@
         <v>255</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="15" customHeight="1">
@@ -6890,13 +7299,13 @@
         <v>289</v>
       </c>
       <c r="D148" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E148" s="1">
         <v>1972</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>86</v>
@@ -6908,7 +7317,7 @@
         <v>255</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="15" customHeight="1">
@@ -6922,13 +7331,13 @@
         <v>291</v>
       </c>
       <c r="D149" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E149" s="1">
         <v>1972</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>86</v>
@@ -6940,7 +7349,7 @@
         <v>255</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="15" customHeight="1">
@@ -6954,13 +7363,13 @@
         <v>293</v>
       </c>
       <c r="D150" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E150" s="1">
         <v>1973</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>86</v>
@@ -6972,7 +7381,7 @@
         <v>255</v>
       </c>
       <c r="J150" s="3" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="15" customHeight="1">
@@ -6986,13 +7395,13 @@
         <v>295</v>
       </c>
       <c r="D151" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E151" s="1">
         <v>1974</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>86</v>
@@ -7004,7 +7413,7 @@
         <v>255</v>
       </c>
       <c r="J151" s="3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="15" customHeight="1">
@@ -7018,13 +7427,13 @@
         <v>297</v>
       </c>
       <c r="D152" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E152" s="1">
         <v>1975</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>86</v>
@@ -7036,7 +7445,7 @@
         <v>255</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="15" customHeight="1">
@@ -7050,13 +7459,13 @@
         <v>299</v>
       </c>
       <c r="D153" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E153" s="1">
         <v>1976</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>86</v>
@@ -7068,7 +7477,7 @@
         <v>255</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="15" customHeight="1">
@@ -7082,13 +7491,13 @@
         <v>301</v>
       </c>
       <c r="D154" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E154" s="1">
         <v>1979</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>86</v>
@@ -7100,7 +7509,7 @@
         <v>255</v>
       </c>
       <c r="J154" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="15" customHeight="1">
@@ -7114,25 +7523,25 @@
         <v>303</v>
       </c>
       <c r="D155" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E155" s="1">
         <v>1980</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>86</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>304</v>
+        <v>742</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="15" customHeight="1">
@@ -7143,28 +7552,28 @@
         <v>26</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D156" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E156" s="1">
         <v>1981</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>86</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>304</v>
+        <v>742</v>
       </c>
       <c r="J156" s="3" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="15" customHeight="1">
@@ -7175,28 +7584,28 @@
         <v>27</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D157" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E157" s="1">
         <v>1983</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>86</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>304</v>
+        <v>742</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="158" spans="1:10" ht="15" customHeight="1">
@@ -7207,28 +7616,28 @@
         <v>28</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D158" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E158" s="1">
         <v>1987</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>86</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>304</v>
+        <v>742</v>
       </c>
       <c r="J158" s="3" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="15" customHeight="1">
@@ -7239,28 +7648,28 @@
         <v>29</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D159" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E159" s="1">
         <v>1991</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>86</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>304</v>
+        <v>742</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="15" customHeight="1">
@@ -7271,28 +7680,28 @@
         <v>30</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D160" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E160" s="1">
         <v>1996</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>86</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>304</v>
+        <v>742</v>
       </c>
       <c r="J160" s="3" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="15" customHeight="1">
@@ -7303,28 +7712,28 @@
         <v>31</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D161" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E161" s="1">
         <v>2001</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>86</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>304</v>
+        <v>742</v>
       </c>
       <c r="J161" s="3" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="15" customHeight="1">
@@ -7335,28 +7744,28 @@
         <v>32</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D162" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E162" s="1">
         <v>1993</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>86</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>317</v>
+        <v>742</v>
       </c>
       <c r="J162" s="3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="15" customHeight="1">
@@ -7367,28 +7776,28 @@
         <v>33</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D163" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E163" s="1">
         <v>2005</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>86</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>304</v>
+        <v>742</v>
       </c>
       <c r="J163" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="15" customHeight="1">
@@ -7399,28 +7808,28 @@
         <v>34</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D164" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E164" s="1">
         <v>2009</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>86</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>321</v>
+        <v>742</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="165" spans="1:10" ht="15" customHeight="1">
@@ -7431,28 +7840,28 @@
         <v>35</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D165" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E165" s="1">
         <v>2013</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="G165" s="2" t="s">
         <v>86</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>324</v>
+        <v>742</v>
       </c>
       <c r="J165" s="3" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="15" customHeight="1">
@@ -7463,28 +7872,28 @@
         <v>36</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D166" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E166" s="1">
         <v>2015</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G166" s="2" t="s">
         <v>86</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>324</v>
+        <v>742</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="15" customHeight="1">
@@ -7495,28 +7904,28 @@
         <v>37</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D167" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E167" s="1">
         <v>2017</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>86</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>324</v>
+        <v>742</v>
       </c>
       <c r="J167" s="3" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="15" customHeight="1">
@@ -7527,28 +7936,28 @@
         <v>38</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D168" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E168" s="1">
         <v>2019</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G168" s="2" t="s">
         <v>86</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="15" customHeight="1">
@@ -7559,28 +7968,28 @@
         <v>39</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D169" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E169" s="1">
         <v>2021</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="G169" s="2" t="s">
         <v>86</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="15" customHeight="1">
@@ -7591,39 +8000,1867 @@
         <v>40</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D170" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E170" s="1">
         <v>2023</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>86</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="J170" s="3" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="171" spans="1:10">
-      <c r="J171" s="3"/>
-    </row>
-    <row r="186" spans="2:6">
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
-      <c r="E186" s="1"/>
-      <c r="F186" s="1"/>
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171" t="s">
+        <v>184</v>
+      </c>
+      <c r="D171" t="s">
+        <v>182</v>
+      </c>
+      <c r="E171">
+        <v>1930</v>
+      </c>
+      <c r="F171" t="s">
+        <v>631</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I171" t="s">
+        <v>183</v>
+      </c>
+      <c r="J171" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>2</v>
+      </c>
+      <c r="C172" t="s">
+        <v>185</v>
+      </c>
+      <c r="D172" t="s">
+        <v>182</v>
+      </c>
+      <c r="E172">
+        <v>1931</v>
+      </c>
+      <c r="F172" t="s">
+        <v>632</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I172" t="s">
+        <v>183</v>
+      </c>
+      <c r="J172" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>3</v>
+      </c>
+      <c r="C173" t="s">
+        <v>186</v>
+      </c>
+      <c r="D173" t="s">
+        <v>182</v>
+      </c>
+      <c r="E173">
+        <v>1932</v>
+      </c>
+      <c r="F173" t="s">
+        <v>633</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I173" t="s">
+        <v>183</v>
+      </c>
+      <c r="J173" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>4</v>
+      </c>
+      <c r="C174" t="s">
+        <v>187</v>
+      </c>
+      <c r="D174" t="s">
+        <v>182</v>
+      </c>
+      <c r="E174">
+        <v>1934</v>
+      </c>
+      <c r="F174" t="s">
+        <v>634</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I174" t="s">
+        <v>183</v>
+      </c>
+      <c r="J174" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>5</v>
+      </c>
+      <c r="C175" t="s">
+        <v>188</v>
+      </c>
+      <c r="D175" t="s">
+        <v>182</v>
+      </c>
+      <c r="E175">
+        <v>1936</v>
+      </c>
+      <c r="F175" t="s">
+        <v>635</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I175" t="s">
+        <v>183</v>
+      </c>
+      <c r="J175" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>6</v>
+      </c>
+      <c r="C176" t="s">
+        <v>189</v>
+      </c>
+      <c r="D176" t="s">
+        <v>182</v>
+      </c>
+      <c r="E176">
+        <v>1937</v>
+      </c>
+      <c r="F176" t="s">
+        <v>636</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I176" t="s">
+        <v>183</v>
+      </c>
+      <c r="J176" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7</v>
+      </c>
+      <c r="C177" t="s">
+        <v>190</v>
+      </c>
+      <c r="D177" t="s">
+        <v>182</v>
+      </c>
+      <c r="E177">
+        <v>1938</v>
+      </c>
+      <c r="F177" t="s">
+        <v>637</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I177" t="s">
+        <v>183</v>
+      </c>
+      <c r="J177" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>8</v>
+      </c>
+      <c r="C178" t="s">
+        <v>191</v>
+      </c>
+      <c r="D178" t="s">
+        <v>182</v>
+      </c>
+      <c r="E178">
+        <v>1939</v>
+      </c>
+      <c r="F178" t="s">
+        <v>638</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I178" t="s">
+        <v>183</v>
+      </c>
+      <c r="J178" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>9</v>
+      </c>
+      <c r="C179" t="s">
+        <v>192</v>
+      </c>
+      <c r="D179" t="s">
+        <v>182</v>
+      </c>
+      <c r="E179">
+        <v>1941</v>
+      </c>
+      <c r="F179" t="s">
+        <v>639</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I179" t="s">
+        <v>183</v>
+      </c>
+      <c r="J179" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>10</v>
+      </c>
+      <c r="C180" t="s">
+        <v>193</v>
+      </c>
+      <c r="D180" t="s">
+        <v>182</v>
+      </c>
+      <c r="E180">
+        <v>1942</v>
+      </c>
+      <c r="F180" t="s">
+        <v>640</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I180" t="s">
+        <v>183</v>
+      </c>
+      <c r="J180" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>11</v>
+      </c>
+      <c r="C181" t="s">
+        <v>194</v>
+      </c>
+      <c r="D181" t="s">
+        <v>182</v>
+      </c>
+      <c r="E181">
+        <v>1943</v>
+      </c>
+      <c r="F181" t="s">
+        <v>641</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I181" t="s">
+        <v>183</v>
+      </c>
+      <c r="J181" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>12</v>
+      </c>
+      <c r="C182" t="s">
+        <v>195</v>
+      </c>
+      <c r="D182" t="s">
+        <v>182</v>
+      </c>
+      <c r="E182">
+        <v>1944</v>
+      </c>
+      <c r="F182" t="s">
+        <v>642</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I182" t="s">
+        <v>183</v>
+      </c>
+      <c r="J182" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>13</v>
+      </c>
+      <c r="C183" t="s">
+        <v>196</v>
+      </c>
+      <c r="D183" t="s">
+        <v>182</v>
+      </c>
+      <c r="E183">
+        <v>1948</v>
+      </c>
+      <c r="F183" t="s">
+        <v>643</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I183" t="s">
+        <v>183</v>
+      </c>
+      <c r="J183" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>14</v>
+      </c>
+      <c r="C184" t="s">
+        <v>197</v>
+      </c>
+      <c r="D184" t="s">
+        <v>182</v>
+      </c>
+      <c r="E184">
+        <v>1949</v>
+      </c>
+      <c r="F184" t="s">
+        <v>644</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I184" t="s">
+        <v>183</v>
+      </c>
+      <c r="J184" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>15</v>
+      </c>
+      <c r="C185" t="s">
+        <v>198</v>
+      </c>
+      <c r="D185" t="s">
+        <v>182</v>
+      </c>
+      <c r="E185">
+        <v>1950</v>
+      </c>
+      <c r="F185" t="s">
+        <v>645</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I185" t="s">
+        <v>183</v>
+      </c>
+      <c r="J185" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>16</v>
+      </c>
+      <c r="C186" t="s">
+        <v>199</v>
+      </c>
+      <c r="D186" t="s">
+        <v>182</v>
+      </c>
+      <c r="E186">
+        <v>1953</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I186" t="s">
+        <v>183</v>
+      </c>
+      <c r="J186" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>17</v>
+      </c>
+      <c r="C187" t="s">
+        <v>200</v>
+      </c>
+      <c r="D187" t="s">
+        <v>182</v>
+      </c>
+      <c r="E187">
+        <v>1954</v>
+      </c>
+      <c r="F187" t="s">
+        <v>647</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I187" t="s">
+        <v>183</v>
+      </c>
+      <c r="J187" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>18</v>
+      </c>
+      <c r="C188" t="s">
+        <v>201</v>
+      </c>
+      <c r="D188" t="s">
+        <v>182</v>
+      </c>
+      <c r="E188">
+        <v>1956</v>
+      </c>
+      <c r="F188" t="s">
+        <v>648</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I188" t="s">
+        <v>183</v>
+      </c>
+      <c r="J188" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>19</v>
+      </c>
+      <c r="C189" t="s">
+        <v>202</v>
+      </c>
+      <c r="D189" t="s">
+        <v>182</v>
+      </c>
+      <c r="E189">
+        <v>1958</v>
+      </c>
+      <c r="F189" t="s">
+        <v>649</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I189" t="s">
+        <v>183</v>
+      </c>
+      <c r="J189" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>20</v>
+      </c>
+      <c r="C190" t="s">
+        <v>203</v>
+      </c>
+      <c r="D190" t="s">
+        <v>182</v>
+      </c>
+      <c r="E190">
+        <v>1960</v>
+      </c>
+      <c r="F190" t="s">
+        <v>650</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I190" t="s">
+        <v>183</v>
+      </c>
+      <c r="J190" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>21</v>
+      </c>
+      <c r="C191" t="s">
+        <v>204</v>
+      </c>
+      <c r="D191" t="s">
+        <v>182</v>
+      </c>
+      <c r="E191">
+        <v>1963</v>
+      </c>
+      <c r="F191" t="s">
+        <v>651</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I191" t="s">
+        <v>183</v>
+      </c>
+      <c r="J191" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>22</v>
+      </c>
+      <c r="C192" t="s">
+        <v>205</v>
+      </c>
+      <c r="D192" t="s">
+        <v>182</v>
+      </c>
+      <c r="E192">
+        <v>1968</v>
+      </c>
+      <c r="F192" t="s">
+        <v>652</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I192" t="s">
+        <v>183</v>
+      </c>
+      <c r="J192" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>23</v>
+      </c>
+      <c r="C193" t="s">
+        <v>206</v>
+      </c>
+      <c r="D193" t="s">
+        <v>182</v>
+      </c>
+      <c r="E193">
+        <v>1976</v>
+      </c>
+      <c r="F193" t="s">
+        <v>653</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I193" t="s">
+        <v>183</v>
+      </c>
+      <c r="J193" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>24</v>
+      </c>
+      <c r="C194" t="s">
+        <v>207</v>
+      </c>
+      <c r="D194" t="s">
+        <v>182</v>
+      </c>
+      <c r="E194">
+        <v>1986</v>
+      </c>
+      <c r="F194" t="s">
+        <v>654</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I194" t="s">
+        <v>183</v>
+      </c>
+      <c r="J194" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" s="1">
+        <v>1</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D195" t="s">
+        <v>334</v>
+      </c>
+      <c r="E195" s="1">
+        <v>1961</v>
+      </c>
+      <c r="F195" t="s">
+        <v>664</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J195" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" s="1">
+        <v>2</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D196" t="s">
+        <v>334</v>
+      </c>
+      <c r="E196" s="1">
+        <v>1962</v>
+      </c>
+      <c r="F196" t="s">
+        <v>665</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J196" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" s="1">
+        <v>3</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D197" t="s">
+        <v>334</v>
+      </c>
+      <c r="E197" s="1">
+        <v>1963</v>
+      </c>
+      <c r="F197" t="s">
+        <v>666</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J197" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" s="1">
+        <v>4</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D198" t="s">
+        <v>334</v>
+      </c>
+      <c r="E198" s="1">
+        <v>1964</v>
+      </c>
+      <c r="F198" t="s">
+        <v>667</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J198" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" s="1">
+        <v>5</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D199" t="s">
+        <v>334</v>
+      </c>
+      <c r="E199" s="1">
+        <v>1965</v>
+      </c>
+      <c r="F199" t="s">
+        <v>668</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I199" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J199" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" s="1">
+        <v>6</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D200" t="s">
+        <v>334</v>
+      </c>
+      <c r="E200" s="1">
+        <v>1965</v>
+      </c>
+      <c r="F200" t="s">
+        <v>669</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J200" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" s="1">
+        <v>7</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D201" t="s">
+        <v>334</v>
+      </c>
+      <c r="E201" s="1">
+        <v>1966</v>
+      </c>
+      <c r="F201" t="s">
+        <v>670</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J201" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" s="1">
+        <v>8</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D202" t="s">
+        <v>334</v>
+      </c>
+      <c r="E202" s="1">
+        <v>1966</v>
+      </c>
+      <c r="F202" t="s">
+        <v>671</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J202" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" s="1">
+        <v>9</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D203" t="s">
+        <v>334</v>
+      </c>
+      <c r="E203" s="1">
+        <v>1966</v>
+      </c>
+      <c r="F203" t="s">
+        <v>672</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J203" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" s="1">
+        <v>10</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D204" t="s">
+        <v>334</v>
+      </c>
+      <c r="E204" s="1">
+        <v>1967</v>
+      </c>
+      <c r="F204" t="s">
+        <v>673</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J204" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" s="1">
+        <v>11</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="D205" t="s">
+        <v>334</v>
+      </c>
+      <c r="E205" s="1">
+        <v>1968</v>
+      </c>
+      <c r="F205" t="s">
+        <v>674</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I205" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J205" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" s="1">
+        <v>12</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D206" t="s">
+        <v>334</v>
+      </c>
+      <c r="E206" s="1">
+        <v>1968</v>
+      </c>
+      <c r="F206" t="s">
+        <v>675</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I206" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J206" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" s="1">
+        <v>13</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D207" t="s">
+        <v>334</v>
+      </c>
+      <c r="E207" s="1">
+        <v>1969</v>
+      </c>
+      <c r="F207" t="s">
+        <v>676</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I207" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J207" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" s="1">
+        <v>14</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D208" t="s">
+        <v>334</v>
+      </c>
+      <c r="E208" s="1">
+        <v>1969</v>
+      </c>
+      <c r="F208" t="s">
+        <v>677</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I208" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J208" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" s="1">
+        <v>15</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D209" t="s">
+        <v>334</v>
+      </c>
+      <c r="E209" s="1">
+        <v>1970</v>
+      </c>
+      <c r="F209" t="s">
+        <v>678</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I209" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J209" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" s="1">
+        <v>16</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D210" t="s">
+        <v>334</v>
+      </c>
+      <c r="E210" s="1">
+        <v>1970</v>
+      </c>
+      <c r="F210" t="s">
+        <v>679</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J210" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" s="1">
+        <v>17</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D211" t="s">
+        <v>334</v>
+      </c>
+      <c r="E211" s="1">
+        <v>1971</v>
+      </c>
+      <c r="F211" t="s">
+        <v>680</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J211" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" s="1">
+        <v>18</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D212" t="s">
+        <v>334</v>
+      </c>
+      <c r="E212" s="1">
+        <v>1972</v>
+      </c>
+      <c r="F212" t="s">
+        <v>681</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I212" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J212" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" s="1">
+        <v>19</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D213" t="s">
+        <v>334</v>
+      </c>
+      <c r="E213" s="1">
+        <v>1972</v>
+      </c>
+      <c r="F213" t="s">
+        <v>682</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J213" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" s="1">
+        <v>20</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D214" t="s">
+        <v>334</v>
+      </c>
+      <c r="E214" s="1">
+        <v>1973</v>
+      </c>
+      <c r="F214" t="s">
+        <v>683</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I214" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J214" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" s="1">
+        <v>21</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D215" t="s">
+        <v>334</v>
+      </c>
+      <c r="E215" s="1">
+        <v>1974</v>
+      </c>
+      <c r="F215" t="s">
+        <v>684</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I215" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J215" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" s="1">
+        <v>22</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D216" t="s">
+        <v>334</v>
+      </c>
+      <c r="E216" s="1">
+        <v>1975</v>
+      </c>
+      <c r="F216" t="s">
+        <v>685</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I216" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J216" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" s="1">
+        <v>23</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D217" t="s">
+        <v>334</v>
+      </c>
+      <c r="E217" s="1">
+        <v>1976</v>
+      </c>
+      <c r="F217" t="s">
+        <v>686</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I217" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J217" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" s="1">
+        <v>24</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="D218" t="s">
+        <v>334</v>
+      </c>
+      <c r="E218" s="1">
+        <v>1979</v>
+      </c>
+      <c r="F218" t="s">
+        <v>687</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J218" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" s="1">
+        <v>25</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D219" t="s">
+        <v>334</v>
+      </c>
+      <c r="E219" s="1">
+        <v>1980</v>
+      </c>
+      <c r="F219" t="s">
+        <v>688</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I219" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="J219" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" s="1">
+        <v>26</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D220" t="s">
+        <v>334</v>
+      </c>
+      <c r="E220" s="1">
+        <v>1981</v>
+      </c>
+      <c r="F220" t="s">
+        <v>689</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I220" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="J220" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" s="1">
+        <v>27</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D221" t="s">
+        <v>334</v>
+      </c>
+      <c r="E221" s="1">
+        <v>1983</v>
+      </c>
+      <c r="F221" t="s">
+        <v>690</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I221" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="J221" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" s="1">
+        <v>28</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="D222" t="s">
+        <v>334</v>
+      </c>
+      <c r="E222" s="1">
+        <v>1987</v>
+      </c>
+      <c r="F222" t="s">
+        <v>691</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I222" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="J222" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" s="1">
+        <v>29</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D223" t="s">
+        <v>334</v>
+      </c>
+      <c r="E223" s="1">
+        <v>1991</v>
+      </c>
+      <c r="F223" t="s">
+        <v>692</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I223" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="J223" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" s="1">
+        <v>30</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D224" t="s">
+        <v>334</v>
+      </c>
+      <c r="E224" s="1">
+        <v>1996</v>
+      </c>
+      <c r="F224" t="s">
+        <v>693</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I224" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="J224" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" s="1">
+        <v>31</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="D225" t="s">
+        <v>334</v>
+      </c>
+      <c r="E225" s="1">
+        <v>2001</v>
+      </c>
+      <c r="F225" t="s">
+        <v>702</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I225" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="J225" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" s="1">
+        <v>32</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D226" t="s">
+        <v>334</v>
+      </c>
+      <c r="E226" s="1">
+        <v>2003</v>
+      </c>
+      <c r="F226" t="s">
+        <v>694</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I226" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="J226" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" s="1">
+        <v>33</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D227" t="s">
+        <v>334</v>
+      </c>
+      <c r="E227" s="1">
+        <v>2005</v>
+      </c>
+      <c r="F227" t="s">
+        <v>695</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I227" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="J227" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" s="1">
+        <v>34</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D228" t="s">
+        <v>334</v>
+      </c>
+      <c r="E228" s="1">
+        <v>2013</v>
+      </c>
+      <c r="F228" t="s">
+        <v>696</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I228" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="J228" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" s="1">
+        <v>35</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D229" t="s">
+        <v>334</v>
+      </c>
+      <c r="E229" s="1">
+        <v>2015</v>
+      </c>
+      <c r="F229" t="s">
+        <v>697</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I229" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="J229" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" s="1">
+        <v>36</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D230" t="s">
+        <v>334</v>
+      </c>
+      <c r="E230" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F230" t="s">
+        <v>698</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I230" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="J230" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" s="1">
+        <v>37</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="D231" t="s">
+        <v>334</v>
+      </c>
+      <c r="E231" s="1">
+        <v>2019</v>
+      </c>
+      <c r="F231" t="s">
+        <v>699</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I231" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="J231" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" s="1">
+        <v>38</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D232" t="s">
+        <v>334</v>
+      </c>
+      <c r="E232" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F232" t="s">
+        <v>700</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I232" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="J232" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" s="1">
+        <v>39</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D233" t="s">
+        <v>334</v>
+      </c>
+      <c r="E233" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F233" t="s">
+        <v>701</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I233" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="J233" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10">
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+      <c r="E234" s="1"/>
+      <c r="G234" s="2"/>
+      <c r="I234" s="1"/>
+    </row>
+    <row r="235" spans="1:10">
+      <c r="G235" s="2"/>
+      <c r="I235" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
